--- a/POMFramework_Sarathi/DataFiles/NewDL.xlsx
+++ b/POMFramework_Sarathi/DataFiles/NewDL.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16919" uniqueCount="2458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16756" uniqueCount="2435">
   <si>
     <t>Iteration</t>
   </si>
@@ -6305,564 +6305,168 @@
     <t>01-09-2020</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>31-08-2027</t>
   </si>
   <si>
     <t>31-08-2023</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Krishnadas</t>
-  </si>
-  <si>
-    <t>Sweta</t>
-  </si>
-  <si>
-    <t>15521</t>
-  </si>
-  <si>
-    <t>GJ90120070000102</t>
-  </si>
-  <si>
-    <t>15621</t>
-  </si>
-  <si>
-    <t>Agrata</t>
-  </si>
-  <si>
-    <t>GJ90120070000103</t>
-  </si>
-  <si>
-    <t>15721</t>
-  </si>
-  <si>
-    <t>Divya</t>
-  </si>
-  <si>
-    <t>GJ90120070000104</t>
-  </si>
-  <si>
-    <t>15821</t>
-  </si>
-  <si>
     <t>Aatreya</t>
   </si>
   <si>
-    <t>GJ90120070000105</t>
-  </si>
-  <si>
     <t>15921</t>
   </si>
   <si>
-    <t>Kanaka</t>
-  </si>
-  <si>
-    <t>GJ90120070000106</t>
-  </si>
-  <si>
     <t>16021</t>
   </si>
   <si>
-    <t>Chidambaram</t>
-  </si>
-  <si>
-    <t>Ghanshyam</t>
-  </si>
-  <si>
-    <t>GJ90120070000107</t>
-  </si>
-  <si>
     <t>16121</t>
   </si>
   <si>
-    <t>GJ90120070000108</t>
-  </si>
-  <si>
     <t>16221</t>
   </si>
   <si>
-    <t>Prathamesh</t>
-  </si>
-  <si>
-    <t>GJ90120070000109</t>
-  </si>
-  <si>
     <t>16321</t>
   </si>
   <si>
-    <t>GJ90120070000110</t>
-  </si>
-  <si>
     <t>16421</t>
   </si>
   <si>
-    <t>GJ90120070000111</t>
-  </si>
-  <si>
     <t>16521</t>
   </si>
   <si>
-    <t>GJ90120070000112</t>
-  </si>
-  <si>
     <t>16621</t>
   </si>
   <si>
-    <t>GJ90120070000113</t>
-  </si>
-  <si>
     <t>16721</t>
   </si>
   <si>
-    <t>Ekalavya</t>
-  </si>
-  <si>
-    <t>GJ90120070000114</t>
-  </si>
-  <si>
     <t>16821</t>
   </si>
   <si>
-    <t>GJ90120070000115</t>
-  </si>
-  <si>
     <t>16921</t>
   </si>
   <si>
-    <t>Siddhran</t>
-  </si>
-  <si>
-    <t>GJ90120070000116</t>
-  </si>
-  <si>
     <t>17021</t>
   </si>
   <si>
-    <t>Chaturaanan</t>
-  </si>
-  <si>
-    <t>GJ90120070000117</t>
-  </si>
-  <si>
     <t>17121</t>
   </si>
   <si>
-    <t>Shreyashi</t>
-  </si>
-  <si>
-    <t>GJ90120070000118</t>
-  </si>
-  <si>
     <t>17221</t>
   </si>
   <si>
     <t>Amrita</t>
   </si>
   <si>
-    <t>GJ90120070000119</t>
-  </si>
-  <si>
     <t>17321</t>
   </si>
   <si>
     <t>Satyen</t>
   </si>
   <si>
-    <t>GJ90120070000120</t>
-  </si>
-  <si>
     <t>17421</t>
   </si>
   <si>
-    <t>Brahmdev</t>
-  </si>
-  <si>
-    <t>Brahmaanand</t>
-  </si>
-  <si>
-    <t>GJ90120070000121</t>
-  </si>
-  <si>
     <t>17521</t>
   </si>
   <si>
-    <t>Bhadraksh</t>
-  </si>
-  <si>
-    <t>GJ90120070000122</t>
-  </si>
-  <si>
     <t>17621</t>
   </si>
   <si>
-    <t>Devadatt</t>
-  </si>
-  <si>
-    <t>GJ90120070000123</t>
-  </si>
-  <si>
     <t>17721</t>
   </si>
   <si>
-    <t>Parvati</t>
-  </si>
-  <si>
-    <t>Goswami</t>
-  </si>
-  <si>
-    <t>GJ90120070000124</t>
-  </si>
-  <si>
     <t>17821</t>
   </si>
   <si>
-    <t>Mangalya</t>
-  </si>
-  <si>
-    <t>GJ90120070000125</t>
-  </si>
-  <si>
     <t>17921</t>
   </si>
   <si>
     <t>Advaya</t>
   </si>
   <si>
-    <t>GJ90120070000126</t>
-  </si>
-  <si>
     <t>18021</t>
   </si>
   <si>
-    <t>Charuchandra</t>
-  </si>
-  <si>
-    <t>GJ90120070000127</t>
-  </si>
-  <si>
     <t>18121</t>
   </si>
   <si>
-    <t>Avani</t>
-  </si>
-  <si>
-    <t>GJ90120070000128</t>
-  </si>
-  <si>
     <t>18221</t>
   </si>
   <si>
-    <t>Chandrani</t>
-  </si>
-  <si>
-    <t>Pramila</t>
-  </si>
-  <si>
-    <t>GJ90120070000129</t>
-  </si>
-  <si>
     <t>18321</t>
   </si>
   <si>
-    <t>GJ90120070000130</t>
-  </si>
-  <si>
     <t>18421</t>
   </si>
   <si>
-    <t>GJ90120070000132</t>
-  </si>
-  <si>
     <t>18521</t>
   </si>
   <si>
-    <t>GJ90120070000133</t>
-  </si>
-  <si>
     <t>18621</t>
   </si>
   <si>
-    <t>Baalaaditya</t>
-  </si>
-  <si>
-    <t>GJ90120070000134</t>
-  </si>
-  <si>
     <t>18721</t>
   </si>
   <si>
-    <t>Gopaal</t>
-  </si>
-  <si>
-    <t>GJ90120070000135</t>
-  </si>
-  <si>
     <t>18821</t>
   </si>
   <si>
-    <t>GJ90120070000136</t>
-  </si>
-  <si>
     <t>18921</t>
   </si>
   <si>
-    <t>GJ90120070000137</t>
-  </si>
-  <si>
     <t>19021</t>
   </si>
   <si>
-    <t>Sujata</t>
-  </si>
-  <si>
-    <t>Sarla</t>
-  </si>
-  <si>
-    <t>GJ90120070000138</t>
-  </si>
-  <si>
     <t>19121</t>
   </si>
   <si>
     <t>Balaaditya</t>
   </si>
   <si>
-    <t>GJ90120070000139</t>
-  </si>
-  <si>
     <t>19221</t>
   </si>
   <si>
-    <t>Divjot</t>
-  </si>
-  <si>
-    <t>Chidananda</t>
-  </si>
-  <si>
-    <t>GJ90120070000140</t>
-  </si>
-  <si>
     <t>19321</t>
   </si>
   <si>
-    <t>Annapurna</t>
-  </si>
-  <si>
-    <t>Shanti</t>
-  </si>
-  <si>
-    <t>GJ90120070000141</t>
-  </si>
-  <si>
     <t>19421</t>
   </si>
   <si>
-    <t>GJ90120070000142</t>
-  </si>
-  <si>
     <t>19521</t>
   </si>
   <si>
-    <t>GJ90120070000143</t>
-  </si>
-  <si>
     <t>19621</t>
   </si>
   <si>
-    <t>Shivakari</t>
-  </si>
-  <si>
-    <t>GJ90120070000144</t>
-  </si>
-  <si>
     <t>19721</t>
   </si>
   <si>
-    <t>Shresthi</t>
-  </si>
-  <si>
-    <t>GJ90120070000145</t>
-  </si>
-  <si>
     <t>19821</t>
   </si>
   <si>
-    <t>GJ90120070000146</t>
-  </si>
-  <si>
     <t>19921</t>
   </si>
   <si>
     <t>Adripathi</t>
   </si>
   <si>
-    <t>GJ90120070000147</t>
-  </si>
-  <si>
     <t>20021</t>
   </si>
   <si>
-    <t>Deenabandhu</t>
-  </si>
-  <si>
-    <t>GJ90120070000148</t>
-  </si>
-  <si>
     <t>20121</t>
   </si>
   <si>
-    <t>Giri</t>
-  </si>
-  <si>
-    <t>Rageshwari</t>
-  </si>
-  <si>
-    <t>GJ90120070000149</t>
-  </si>
-  <si>
     <t>20221</t>
   </si>
   <si>
-    <t>Amish</t>
-  </si>
-  <si>
-    <t>GJ90120070000150</t>
-  </si>
-  <si>
     <t>20321</t>
   </si>
   <si>
-    <t>Vrinda</t>
-  </si>
-  <si>
-    <t>Chaten</t>
-  </si>
-  <si>
-    <t>GJ90120070000131</t>
-  </si>
-  <si>
     <t>20421</t>
   </si>
   <si>
-    <t>GJ90120070000101</t>
-  </si>
-  <si>
     <t>RTOApplicationStatus</t>
   </si>
   <si>
@@ -7331,72 +6935,12 @@
     <t>382921</t>
   </si>
   <si>
-    <t>KL90120101000654</t>
-  </si>
-  <si>
-    <t>383221</t>
-  </si>
-  <si>
-    <t>Kannen</t>
-  </si>
-  <si>
-    <t>KL90120100000254</t>
-  </si>
-  <si>
-    <t>383321</t>
-  </si>
-  <si>
-    <t>Vaishno</t>
-  </si>
-  <si>
-    <t>Aanand</t>
-  </si>
-  <si>
-    <t>KL90120100000255</t>
-  </si>
-  <si>
-    <t>383521</t>
-  </si>
-  <si>
-    <t>Durga</t>
-  </si>
-  <si>
-    <t>KL90120100000256</t>
-  </si>
-  <si>
-    <t>383621</t>
-  </si>
-  <si>
-    <t>Dayaanidhi</t>
-  </si>
-  <si>
-    <t>Agniprava</t>
-  </si>
-  <si>
-    <t>KL90120100000257</t>
-  </si>
-  <si>
-    <t>383721</t>
-  </si>
-  <si>
     <t>Manisha</t>
   </si>
   <si>
-    <t>KL90120100000258</t>
-  </si>
-  <si>
-    <t>383821</t>
-  </si>
-  <si>
     <t>Atmananda</t>
   </si>
   <si>
-    <t>KL90120100000259</t>
-  </si>
-  <si>
-    <t>383921</t>
-  </si>
-  <si>
     <t>Manoj</t>
   </si>
   <si>
@@ -7464,6 +7008,393 @@
   </si>
   <si>
     <t>384921</t>
+  </si>
+  <si>
+    <t>MH90120100000253</t>
+  </si>
+  <si>
+    <t>50921</t>
+  </si>
+  <si>
+    <t>MH90120101000036</t>
+  </si>
+  <si>
+    <t>51021</t>
+  </si>
+  <si>
+    <t>MH90120100000254</t>
+  </si>
+  <si>
+    <t>51121</t>
+  </si>
+  <si>
+    <t>MH90120100000255</t>
+  </si>
+  <si>
+    <t>51221</t>
+  </si>
+  <si>
+    <t>MH90120100000256</t>
+  </si>
+  <si>
+    <t>51321</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>Chitrali</t>
+  </si>
+  <si>
+    <t>GJ90120070000210</t>
+  </si>
+  <si>
+    <t>397621</t>
+  </si>
+  <si>
+    <t>Deevakar</t>
+  </si>
+  <si>
+    <t>Pushti</t>
+  </si>
+  <si>
+    <t>GJ90120070000211</t>
+  </si>
+  <si>
+    <t>397921</t>
+  </si>
+  <si>
+    <t>GJ90120070000214</t>
+  </si>
+  <si>
+    <t>398021</t>
+  </si>
+  <si>
+    <t>Adinath</t>
+  </si>
+  <si>
+    <t>GJ90120070000215</t>
+  </si>
+  <si>
+    <t>398121</t>
+  </si>
+  <si>
+    <t>Anwesha</t>
+  </si>
+  <si>
+    <t>Lila</t>
+  </si>
+  <si>
+    <t>GJ90120070000216</t>
+  </si>
+  <si>
+    <t>398221</t>
+  </si>
+  <si>
+    <t>GJ90120070000217</t>
+  </si>
+  <si>
+    <t>398321</t>
+  </si>
+  <si>
+    <t>Akroor</t>
+  </si>
+  <si>
+    <t>GJ90120070000218</t>
+  </si>
+  <si>
+    <t>398421</t>
+  </si>
+  <si>
+    <t>Anjali</t>
+  </si>
+  <si>
+    <t>GJ90120070000219</t>
+  </si>
+  <si>
+    <t>398521</t>
+  </si>
+  <si>
+    <t>Meena</t>
+  </si>
+  <si>
+    <t>Anila</t>
+  </si>
+  <si>
+    <t>GJ90120070000220</t>
+  </si>
+  <si>
+    <t>398721</t>
+  </si>
+  <si>
+    <t>GJ90120070000221</t>
+  </si>
+  <si>
+    <t>398821</t>
+  </si>
+  <si>
+    <t>GJ90120070000222</t>
+  </si>
+  <si>
+    <t>398921</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>GJ90120070000223</t>
+  </si>
+  <si>
+    <t>399021</t>
+  </si>
+  <si>
+    <t>Dipali</t>
+  </si>
+  <si>
+    <t>GJ90120070000224</t>
+  </si>
+  <si>
+    <t>399121</t>
+  </si>
+  <si>
+    <t>Deeptendu</t>
+  </si>
+  <si>
+    <t>GJ90120070000225</t>
+  </si>
+  <si>
+    <t>399221</t>
+  </si>
+  <si>
+    <t>Anasuya</t>
+  </si>
+  <si>
+    <t>GJ90120070000226</t>
+  </si>
+  <si>
+    <t>399321</t>
+  </si>
+  <si>
+    <t>Avantika</t>
+  </si>
+  <si>
+    <t>GJ90120070000227</t>
+  </si>
+  <si>
+    <t>399421</t>
+  </si>
+  <si>
+    <t>Tejas</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>GJ90120070000228</t>
+  </si>
+  <si>
+    <t>399521</t>
+  </si>
+  <si>
+    <t>Harit</t>
+  </si>
+  <si>
+    <t>GJ90120070000229</t>
+  </si>
+  <si>
+    <t>399621</t>
+  </si>
+  <si>
+    <t>Vasudha</t>
+  </si>
+  <si>
+    <t>GJ90120070000230</t>
+  </si>
+  <si>
+    <t>399721</t>
+  </si>
+  <si>
+    <t>GJ90120070000231</t>
+  </si>
+  <si>
+    <t>399821</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>GJ90120070000232</t>
+  </si>
+  <si>
+    <t>399921</t>
+  </si>
+  <si>
+    <t>GJ90120070000233</t>
+  </si>
+  <si>
+    <t>400021</t>
+  </si>
+  <si>
+    <t>GJ90120070000234</t>
+  </si>
+  <si>
+    <t>400121</t>
+  </si>
+  <si>
+    <t>Deepankar</t>
+  </si>
+  <si>
+    <t>GJ90120070000235</t>
+  </si>
+  <si>
+    <t>400221</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>GJ90120070000236</t>
+  </si>
+  <si>
+    <t>400321</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>GJ90120070000237</t>
+  </si>
+  <si>
+    <t>400421</t>
+  </si>
+  <si>
+    <t>GJ90120070000238</t>
+  </si>
+  <si>
+    <t>400521</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>GJ90120070000239</t>
+  </si>
+  <si>
+    <t>400621</t>
+  </si>
+  <si>
+    <t>Shashi</t>
+  </si>
+  <si>
+    <t>GJ90120070000240</t>
+  </si>
+  <si>
+    <t>400721</t>
+  </si>
+  <si>
+    <t>Sarala</t>
+  </si>
+  <si>
+    <t>GJ90120070000212</t>
+  </si>
+  <si>
+    <t>400921</t>
+  </si>
+  <si>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>GJ90120070000213</t>
+  </si>
+  <si>
+    <t>401021</t>
   </si>
 </sst>
 </file>
@@ -7771,7 +7702,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8224,6 +8155,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8580,8 +8517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB411" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO416" sqref="AO416:AQ433"/>
+    <sheetView tabSelected="1" topLeftCell="AB338" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO349" sqref="AO349:AQ350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9885,10 +9822,10 @@
         <v>923</v>
       </c>
       <c r="O28" s="184" t="s">
-        <v>2317</v>
+        <v>2185</v>
       </c>
       <c r="P28" t="s">
-        <v>2318</v>
+        <v>2186</v>
       </c>
       <c r="Q28" t="s">
         <v>865</v>
@@ -9939,10 +9876,10 @@
         <v>923</v>
       </c>
       <c r="O29" s="188" t="s">
-        <v>2319</v>
+        <v>2187</v>
       </c>
       <c r="P29" t="s">
-        <v>2320</v>
+        <v>2188</v>
       </c>
       <c r="Q29" t="s">
         <v>865</v>
@@ -10347,7 +10284,7 @@
         <v>923</v>
       </c>
       <c r="O38" s="183" t="s">
-        <v>2312</v>
+        <v>2180</v>
       </c>
       <c r="P38" s="76" t="s">
         <v>865</v>
@@ -11247,10 +11184,10 @@
         <v>923</v>
       </c>
       <c r="O55" s="182" t="s">
-        <v>2265</v>
+        <v>2133</v>
       </c>
       <c r="P55" t="s">
-        <v>2270</v>
+        <v>2138</v>
       </c>
       <c r="Q55" t="s">
         <v>865</v>
@@ -11301,10 +11238,10 @@
         <v>923</v>
       </c>
       <c r="O56" s="182" t="s">
-        <v>2266</v>
+        <v>2134</v>
       </c>
       <c r="P56" t="s">
-        <v>2271</v>
+        <v>2139</v>
       </c>
       <c r="Q56" t="s">
         <v>865</v>
@@ -11355,10 +11292,10 @@
         <v>923</v>
       </c>
       <c r="O57" s="182" t="s">
-        <v>2267</v>
+        <v>2135</v>
       </c>
       <c r="P57" t="s">
-        <v>2272</v>
+        <v>2140</v>
       </c>
       <c r="Q57" t="s">
         <v>865</v>
@@ -11409,10 +11346,10 @@
         <v>923</v>
       </c>
       <c r="O58" s="182" t="s">
-        <v>2268</v>
+        <v>2136</v>
       </c>
       <c r="P58" t="s">
-        <v>2273</v>
+        <v>2141</v>
       </c>
       <c r="Q58" t="s">
         <v>865</v>
@@ -11463,10 +11400,10 @@
         <v>923</v>
       </c>
       <c r="O59" s="182" t="s">
-        <v>2269</v>
+        <v>2137</v>
       </c>
       <c r="P59" t="s">
-        <v>2274</v>
+        <v>2142</v>
       </c>
       <c r="Q59" t="s">
         <v>865</v>
@@ -11517,10 +11454,10 @@
         <v>923</v>
       </c>
       <c r="O60" s="188" t="s">
-        <v>2319</v>
+        <v>2187</v>
       </c>
       <c r="P60" s="152" t="s">
-        <v>2320</v>
+        <v>2188</v>
       </c>
       <c r="Q60" s="152" t="s">
         <v>865</v>
@@ -11571,10 +11508,10 @@
         <v>923</v>
       </c>
       <c r="O61" s="189" t="s">
-        <v>2331</v>
+        <v>2199</v>
       </c>
       <c r="P61" s="152" t="s">
-        <v>2351</v>
+        <v>2219</v>
       </c>
       <c r="Q61" s="152" t="s">
         <v>865</v>
@@ -11625,10 +11562,10 @@
         <v>923</v>
       </c>
       <c r="O62" s="191" t="s">
-        <v>2332</v>
+        <v>2200</v>
       </c>
       <c r="P62" s="152" t="s">
-        <v>2352</v>
+        <v>2220</v>
       </c>
       <c r="Q62" s="152" t="s">
         <v>865</v>
@@ -11679,10 +11616,10 @@
         <v>923</v>
       </c>
       <c r="O63" s="191" t="s">
-        <v>2333</v>
+        <v>2201</v>
       </c>
       <c r="P63" s="152" t="s">
-        <v>2353</v>
+        <v>2221</v>
       </c>
       <c r="Q63" s="152" t="s">
         <v>865</v>
@@ -11733,10 +11670,10 @@
         <v>923</v>
       </c>
       <c r="O64" s="191" t="s">
-        <v>2334</v>
+        <v>2202</v>
       </c>
       <c r="P64" s="152" t="s">
-        <v>2354</v>
+        <v>2222</v>
       </c>
       <c r="Q64" s="152" t="s">
         <v>865</v>
@@ -11787,10 +11724,10 @@
         <v>923</v>
       </c>
       <c r="O65" s="191" t="s">
-        <v>2335</v>
+        <v>2203</v>
       </c>
       <c r="P65" s="152" t="s">
-        <v>2355</v>
+        <v>2223</v>
       </c>
       <c r="Q65" s="152" t="s">
         <v>865</v>
@@ -11801,7 +11738,7 @@
         <v>924</v>
       </c>
       <c r="B66" s="186" t="s">
-        <v>2276</v>
+        <v>2144</v>
       </c>
       <c r="C66" s="48" t="s">
         <v>880</v>
@@ -11841,10 +11778,10 @@
         <v>923</v>
       </c>
       <c r="O66" s="191" t="s">
-        <v>2336</v>
+        <v>2204</v>
       </c>
       <c r="P66" s="152" t="s">
-        <v>2356</v>
+        <v>2224</v>
       </c>
       <c r="Q66" s="152" t="s">
         <v>865</v>
@@ -11855,7 +11792,7 @@
         <v>924</v>
       </c>
       <c r="B67" s="186" t="s">
-        <v>2277</v>
+        <v>2145</v>
       </c>
       <c r="C67" s="48" t="s">
         <v>880</v>
@@ -11895,10 +11832,10 @@
         <v>923</v>
       </c>
       <c r="O67" s="191" t="s">
-        <v>2337</v>
+        <v>2205</v>
       </c>
       <c r="P67" s="152" t="s">
-        <v>2357</v>
+        <v>2225</v>
       </c>
       <c r="Q67" s="152" t="s">
         <v>865</v>
@@ -11909,7 +11846,7 @@
         <v>924</v>
       </c>
       <c r="B68" s="186" t="s">
-        <v>2278</v>
+        <v>2146</v>
       </c>
       <c r="C68" s="48" t="s">
         <v>880</v>
@@ -11949,10 +11886,10 @@
         <v>923</v>
       </c>
       <c r="O68" s="191" t="s">
-        <v>2338</v>
+        <v>2206</v>
       </c>
       <c r="P68" s="152" t="s">
-        <v>2358</v>
+        <v>2226</v>
       </c>
       <c r="Q68" s="152" t="s">
         <v>865</v>
@@ -11963,7 +11900,7 @@
         <v>924</v>
       </c>
       <c r="B69" s="186" t="s">
-        <v>2279</v>
+        <v>2147</v>
       </c>
       <c r="C69" s="48" t="s">
         <v>880</v>
@@ -12003,10 +11940,10 @@
         <v>923</v>
       </c>
       <c r="O69" s="191" t="s">
-        <v>2339</v>
+        <v>2207</v>
       </c>
       <c r="P69" s="152" t="s">
-        <v>2359</v>
+        <v>2227</v>
       </c>
       <c r="Q69" s="152" t="s">
         <v>865</v>
@@ -12017,7 +11954,7 @@
         <v>924</v>
       </c>
       <c r="B70" s="186" t="s">
-        <v>2280</v>
+        <v>2148</v>
       </c>
       <c r="C70" s="48" t="s">
         <v>880</v>
@@ -12057,10 +11994,10 @@
         <v>923</v>
       </c>
       <c r="O70" s="191" t="s">
-        <v>2340</v>
+        <v>2208</v>
       </c>
       <c r="P70" s="152" t="s">
-        <v>2360</v>
+        <v>2228</v>
       </c>
       <c r="Q70" s="152" t="s">
         <v>865</v>
@@ -12071,7 +12008,7 @@
         <v>924</v>
       </c>
       <c r="B71" s="186" t="s">
-        <v>2321</v>
+        <v>2189</v>
       </c>
       <c r="C71" s="48" t="s">
         <v>880</v>
@@ -12111,10 +12048,10 @@
         <v>923</v>
       </c>
       <c r="O71" s="191" t="s">
-        <v>2341</v>
+        <v>2209</v>
       </c>
       <c r="P71" s="152" t="s">
-        <v>2361</v>
+        <v>2229</v>
       </c>
       <c r="Q71" s="152" t="s">
         <v>865</v>
@@ -12125,7 +12062,7 @@
         <v>924</v>
       </c>
       <c r="B72" s="186" t="s">
-        <v>2322</v>
+        <v>2190</v>
       </c>
       <c r="C72" s="48" t="s">
         <v>880</v>
@@ -12165,10 +12102,10 @@
         <v>923</v>
       </c>
       <c r="O72" s="191" t="s">
-        <v>2342</v>
+        <v>2210</v>
       </c>
       <c r="P72" s="152" t="s">
-        <v>2362</v>
+        <v>2230</v>
       </c>
       <c r="Q72" s="152" t="s">
         <v>865</v>
@@ -12179,7 +12116,7 @@
         <v>924</v>
       </c>
       <c r="B73" s="186" t="s">
-        <v>2323</v>
+        <v>2191</v>
       </c>
       <c r="C73" s="48" t="s">
         <v>880</v>
@@ -12219,10 +12156,10 @@
         <v>923</v>
       </c>
       <c r="O73" s="191" t="s">
-        <v>2343</v>
+        <v>2211</v>
       </c>
       <c r="P73" s="152" t="s">
-        <v>2363</v>
+        <v>2231</v>
       </c>
       <c r="Q73" s="152" t="s">
         <v>865</v>
@@ -12233,7 +12170,7 @@
         <v>924</v>
       </c>
       <c r="B74" s="186" t="s">
-        <v>2324</v>
+        <v>2192</v>
       </c>
       <c r="C74" s="48" t="s">
         <v>880</v>
@@ -12273,10 +12210,10 @@
         <v>923</v>
       </c>
       <c r="O74" s="191" t="s">
-        <v>2344</v>
+        <v>2212</v>
       </c>
       <c r="P74" s="152" t="s">
-        <v>2364</v>
+        <v>2232</v>
       </c>
       <c r="Q74" s="152" t="s">
         <v>865</v>
@@ -12287,7 +12224,7 @@
         <v>924</v>
       </c>
       <c r="B75" s="186" t="s">
-        <v>2325</v>
+        <v>2193</v>
       </c>
       <c r="C75" s="48" t="s">
         <v>880</v>
@@ -12327,10 +12264,10 @@
         <v>923</v>
       </c>
       <c r="O75" s="191" t="s">
-        <v>2345</v>
+        <v>2213</v>
       </c>
       <c r="P75" s="152" t="s">
-        <v>2365</v>
+        <v>2233</v>
       </c>
       <c r="Q75" s="152" t="s">
         <v>865</v>
@@ -12341,7 +12278,7 @@
         <v>924</v>
       </c>
       <c r="B76" s="186" t="s">
-        <v>2326</v>
+        <v>2194</v>
       </c>
       <c r="C76" s="48" t="s">
         <v>880</v>
@@ -12381,10 +12318,10 @@
         <v>923</v>
       </c>
       <c r="O76" s="191" t="s">
-        <v>2346</v>
+        <v>2214</v>
       </c>
       <c r="P76" s="152" t="s">
-        <v>2366</v>
+        <v>2234</v>
       </c>
       <c r="Q76" s="152" t="s">
         <v>865</v>
@@ -12395,7 +12332,7 @@
         <v>924</v>
       </c>
       <c r="B77" s="186" t="s">
-        <v>2327</v>
+        <v>2195</v>
       </c>
       <c r="C77" s="48" t="s">
         <v>880</v>
@@ -12435,10 +12372,10 @@
         <v>923</v>
       </c>
       <c r="O77" s="191" t="s">
-        <v>2347</v>
+        <v>2215</v>
       </c>
       <c r="P77" s="152" t="s">
-        <v>2367</v>
+        <v>2235</v>
       </c>
       <c r="Q77" s="152" t="s">
         <v>865</v>
@@ -12449,7 +12386,7 @@
         <v>924</v>
       </c>
       <c r="B78" s="186" t="s">
-        <v>2328</v>
+        <v>2196</v>
       </c>
       <c r="C78" s="48" t="s">
         <v>880</v>
@@ -12489,10 +12426,10 @@
         <v>923</v>
       </c>
       <c r="O78" s="191" t="s">
-        <v>2348</v>
+        <v>2216</v>
       </c>
       <c r="P78" s="152" t="s">
-        <v>2368</v>
+        <v>2236</v>
       </c>
       <c r="Q78" s="152" t="s">
         <v>865</v>
@@ -12503,7 +12440,7 @@
         <v>924</v>
       </c>
       <c r="B79" s="186" t="s">
-        <v>2329</v>
+        <v>2197</v>
       </c>
       <c r="C79" s="48" t="s">
         <v>880</v>
@@ -12543,10 +12480,10 @@
         <v>923</v>
       </c>
       <c r="O79" s="191" t="s">
-        <v>2349</v>
+        <v>2217</v>
       </c>
       <c r="P79" s="152" t="s">
-        <v>2369</v>
+        <v>2237</v>
       </c>
       <c r="Q79" s="152" t="s">
         <v>865</v>
@@ -12557,7 +12494,7 @@
         <v>924</v>
       </c>
       <c r="B80" s="186" t="s">
-        <v>2330</v>
+        <v>2198</v>
       </c>
       <c r="C80" s="48" t="s">
         <v>880</v>
@@ -12597,10 +12534,10 @@
         <v>923</v>
       </c>
       <c r="O80" s="191" t="s">
-        <v>2350</v>
+        <v>2218</v>
       </c>
       <c r="P80" s="152" t="s">
-        <v>2370</v>
+        <v>2238</v>
       </c>
       <c r="Q80" s="152" t="s">
         <v>865</v>
@@ -14008,7 +13945,7 @@
         <v>944</v>
       </c>
       <c r="W93" s="76" t="s">
-        <v>2258</v>
+        <v>2126</v>
       </c>
       <c r="X93" s="67" t="s">
         <v>1136</v>
@@ -15362,7 +15299,7 @@
         <v>944</v>
       </c>
       <c r="W105" s="76" t="s">
-        <v>2259</v>
+        <v>2127</v>
       </c>
       <c r="X105" s="67" t="s">
         <v>1403</v>
@@ -16772,16 +16709,16 @@
         <v>943</v>
       </c>
       <c r="Q118" s="72" t="s">
-        <v>2311</v>
+        <v>2179</v>
       </c>
       <c r="R118" s="72" t="s">
-        <v>2311</v>
+        <v>2179</v>
       </c>
       <c r="S118" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T118" s="67" t="s">
-        <v>2314</v>
+        <v>2182</v>
       </c>
       <c r="U118" s="76" t="s">
         <v>1173</v>
@@ -16805,7 +16742,7 @@
         <v>947</v>
       </c>
       <c r="AB118" s="74" t="s">
-        <v>2313</v>
+        <v>2181</v>
       </c>
       <c r="AC118" s="68" t="s">
         <v>948</v>
@@ -16844,10 +16781,10 @@
         <v>972</v>
       </c>
       <c r="AO118" s="153" t="s">
-        <v>2315</v>
+        <v>2183</v>
       </c>
       <c r="AP118" s="67" t="s">
-        <v>2316</v>
+        <v>2184</v>
       </c>
       <c r="AQ118" s="73" t="s">
         <v>865</v>
@@ -46777,11 +46714,11 @@
         <v>880</v>
       </c>
       <c r="D347" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E347" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F347" s="174" t="s">
         <v>13</v>
@@ -46817,28 +46754,28 @@
         <v>1003</v>
       </c>
       <c r="Q347" s="174" t="s">
-        <v>2111</v>
+        <v>2316</v>
       </c>
       <c r="R347" s="174" t="s">
-        <v>2111</v>
+        <v>2316</v>
       </c>
       <c r="S347" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T347" s="175" t="s">
-        <v>2112</v>
+        <v>1816</v>
       </c>
       <c r="U347" s="175" t="s">
-        <v>1151</v>
+        <v>1230</v>
       </c>
       <c r="V347" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W347" s="175" t="s">
-        <v>2113</v>
+        <v>2346</v>
       </c>
       <c r="X347" s="175" t="s">
-        <v>1116</v>
+        <v>1522</v>
       </c>
       <c r="Y347" s="178" t="s">
         <v>945</v>
@@ -46889,10 +46826,10 @@
         <v>972</v>
       </c>
       <c r="AO347" s="175" t="s">
-        <v>2256</v>
+        <v>2347</v>
       </c>
       <c r="AP347" s="179" t="s">
-        <v>2114</v>
+        <v>2348</v>
       </c>
       <c r="AQ347" s="175" t="s">
         <v>923</v>
@@ -46909,11 +46846,11 @@
         <v>880</v>
       </c>
       <c r="D348" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E348" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F348" s="174" t="s">
         <v>13</v>
@@ -46949,28 +46886,28 @@
         <v>1003</v>
       </c>
       <c r="Q348" s="174" t="s">
-        <v>2071</v>
+        <v>2317</v>
       </c>
       <c r="R348" s="174" t="s">
-        <v>2071</v>
+        <v>2317</v>
       </c>
       <c r="S348" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T348" s="180" t="s">
-        <v>1499</v>
+        <v>2349</v>
       </c>
       <c r="U348" s="180" t="s">
-        <v>1278</v>
+        <v>1093</v>
       </c>
       <c r="V348" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W348" s="180" t="s">
-        <v>1206</v>
+        <v>2350</v>
       </c>
       <c r="X348" s="180" t="s">
-        <v>1157</v>
+        <v>1124</v>
       </c>
       <c r="Y348" s="178" t="s">
         <v>945</v>
@@ -47021,10 +46958,10 @@
         <v>972</v>
       </c>
       <c r="AO348" s="173" t="s">
-        <v>2115</v>
+        <v>2351</v>
       </c>
       <c r="AP348" s="173" t="s">
-        <v>2116</v>
+        <v>2352</v>
       </c>
       <c r="AQ348" s="173" t="s">
         <v>923</v>
@@ -47034,18 +46971,18 @@
       <c r="A349" s="173" t="s">
         <v>928</v>
       </c>
-      <c r="B349" s="173" t="s">
-        <v>872</v>
+      <c r="B349" s="174" t="s">
+        <v>1</v>
       </c>
       <c r="C349" s="174" t="s">
         <v>880</v>
       </c>
       <c r="D349" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E349" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F349" s="174" t="s">
         <v>13</v>
@@ -47081,28 +47018,28 @@
         <v>1003</v>
       </c>
       <c r="Q349" s="174" t="s">
-        <v>2072</v>
+        <v>2318</v>
       </c>
       <c r="R349" s="174" t="s">
-        <v>2072</v>
+        <v>2318</v>
       </c>
       <c r="S349" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T349" s="180" t="s">
-        <v>1577</v>
+        <v>1628</v>
       </c>
       <c r="U349" s="180" t="s">
-        <v>1654</v>
+        <v>1064</v>
       </c>
       <c r="V349" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W349" s="180" t="s">
-        <v>2117</v>
+        <v>2429</v>
       </c>
       <c r="X349" s="180" t="s">
-        <v>1076</v>
+        <v>1230</v>
       </c>
       <c r="Y349" s="178" t="s">
         <v>945</v>
@@ -47153,10 +47090,10 @@
         <v>972</v>
       </c>
       <c r="AO349" s="175" t="s">
-        <v>2118</v>
+        <v>2430</v>
       </c>
       <c r="AP349" s="175" t="s">
-        <v>2119</v>
+        <v>2431</v>
       </c>
       <c r="AQ349" s="175" t="s">
         <v>923</v>
@@ -47166,18 +47103,18 @@
       <c r="A350" s="173" t="s">
         <v>928</v>
       </c>
-      <c r="B350" s="173" t="s">
-        <v>872</v>
+      <c r="B350" s="174" t="s">
+        <v>962</v>
       </c>
       <c r="C350" s="174" t="s">
         <v>880</v>
       </c>
       <c r="D350" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E350" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F350" s="174" t="s">
         <v>13</v>
@@ -47213,28 +47150,28 @@
         <v>1003</v>
       </c>
       <c r="Q350" s="174" t="s">
-        <v>2073</v>
+        <v>2319</v>
       </c>
       <c r="R350" s="174" t="s">
-        <v>2073</v>
+        <v>2319</v>
       </c>
       <c r="S350" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T350" s="180" t="s">
-        <v>2120</v>
+        <v>1677</v>
       </c>
       <c r="U350" s="180" t="s">
-        <v>1578</v>
+        <v>1205</v>
       </c>
       <c r="V350" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W350" s="180" t="s">
-        <v>1182</v>
+        <v>2432</v>
       </c>
       <c r="X350" s="180" t="s">
-        <v>1514</v>
+        <v>1261</v>
       </c>
       <c r="Y350" s="178" t="s">
         <v>945</v>
@@ -47285,10 +47222,10 @@
         <v>972</v>
       </c>
       <c r="AO350" s="175" t="s">
-        <v>2121</v>
+        <v>2433</v>
       </c>
       <c r="AP350" s="175" t="s">
-        <v>2122</v>
+        <v>2434</v>
       </c>
       <c r="AQ350" s="175" t="s">
         <v>923</v>
@@ -47305,11 +47242,11 @@
         <v>880</v>
       </c>
       <c r="D351" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E351" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F351" s="174" t="s">
         <v>13</v>
@@ -47345,28 +47282,28 @@
         <v>1003</v>
       </c>
       <c r="Q351" s="174" t="s">
-        <v>2074</v>
+        <v>2320</v>
       </c>
       <c r="R351" s="174" t="s">
-        <v>2074</v>
+        <v>2320</v>
       </c>
       <c r="S351" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T351" s="180" t="s">
-        <v>2123</v>
+        <v>2164</v>
       </c>
       <c r="U351" s="180" t="s">
-        <v>1654</v>
+        <v>1062</v>
       </c>
       <c r="V351" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W351" s="180" t="s">
-        <v>1184</v>
+        <v>1385</v>
       </c>
       <c r="X351" s="180" t="s">
-        <v>1210</v>
+        <v>1137</v>
       </c>
       <c r="Y351" s="178" t="s">
         <v>945</v>
@@ -47417,10 +47354,10 @@
         <v>972</v>
       </c>
       <c r="AO351" s="175" t="s">
-        <v>2124</v>
+        <v>2353</v>
       </c>
       <c r="AP351" s="175" t="s">
-        <v>2125</v>
+        <v>2354</v>
       </c>
       <c r="AQ351" s="175" t="s">
         <v>923</v>
@@ -47437,11 +47374,11 @@
         <v>880</v>
       </c>
       <c r="D352" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E352" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F352" s="174" t="s">
         <v>13</v>
@@ -47477,28 +47414,28 @@
         <v>1003</v>
       </c>
       <c r="Q352" s="174" t="s">
-        <v>2075</v>
+        <v>2321</v>
       </c>
       <c r="R352" s="174" t="s">
-        <v>2075</v>
+        <v>2321</v>
       </c>
       <c r="S352" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T352" s="180" t="s">
-        <v>1316</v>
+        <v>2355</v>
       </c>
       <c r="U352" s="180" t="s">
-        <v>1105</v>
+        <v>1256</v>
       </c>
       <c r="V352" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W352" s="180" t="s">
-        <v>2126</v>
+        <v>1411</v>
       </c>
       <c r="X352" s="180" t="s">
-        <v>1201</v>
+        <v>1124</v>
       </c>
       <c r="Y352" s="178" t="s">
         <v>945</v>
@@ -47549,10 +47486,10 @@
         <v>972</v>
       </c>
       <c r="AO352" s="175" t="s">
-        <v>2127</v>
+        <v>2356</v>
       </c>
       <c r="AP352" s="175" t="s">
-        <v>2128</v>
+        <v>2357</v>
       </c>
       <c r="AQ352" s="175" t="s">
         <v>923</v>
@@ -47569,11 +47506,11 @@
         <v>880</v>
       </c>
       <c r="D353" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E353" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F353" s="174" t="s">
         <v>13</v>
@@ -47609,28 +47546,28 @@
         <v>1003</v>
       </c>
       <c r="Q353" s="174" t="s">
-        <v>2076</v>
+        <v>2322</v>
       </c>
       <c r="R353" s="174" t="s">
-        <v>2076</v>
+        <v>2322</v>
       </c>
       <c r="S353" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T353" s="180" t="s">
-        <v>2129</v>
+        <v>2358</v>
       </c>
       <c r="U353" s="180" t="s">
-        <v>1111</v>
+        <v>1583</v>
       </c>
       <c r="V353" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W353" s="180" t="s">
-        <v>2130</v>
+        <v>2359</v>
       </c>
       <c r="X353" s="180" t="s">
-        <v>1484</v>
+        <v>1064</v>
       </c>
       <c r="Y353" s="178" t="s">
         <v>945</v>
@@ -47681,10 +47618,10 @@
         <v>972</v>
       </c>
       <c r="AO353" s="175" t="s">
-        <v>2131</v>
+        <v>2360</v>
       </c>
       <c r="AP353" s="175" t="s">
-        <v>2132</v>
+        <v>2361</v>
       </c>
       <c r="AQ353" s="175" t="s">
         <v>923</v>
@@ -47701,11 +47638,11 @@
         <v>880</v>
       </c>
       <c r="D354" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E354" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F354" s="174" t="s">
         <v>13</v>
@@ -47741,28 +47678,28 @@
         <v>1003</v>
       </c>
       <c r="Q354" s="174" t="s">
-        <v>2077</v>
+        <v>2323</v>
       </c>
       <c r="R354" s="174" t="s">
-        <v>2077</v>
+        <v>2323</v>
       </c>
       <c r="S354" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T354" s="180" t="s">
-        <v>1830</v>
+        <v>1096</v>
       </c>
       <c r="U354" s="180" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="V354" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W354" s="180" t="s">
-        <v>1212</v>
+        <v>1303</v>
       </c>
       <c r="X354" s="180" t="s">
-        <v>1256</v>
+        <v>1561</v>
       </c>
       <c r="Y354" s="178" t="s">
         <v>945</v>
@@ -47813,10 +47750,10 @@
         <v>972</v>
       </c>
       <c r="AO354" s="175" t="s">
-        <v>2133</v>
+        <v>2362</v>
       </c>
       <c r="AP354" s="175" t="s">
-        <v>2134</v>
+        <v>2363</v>
       </c>
       <c r="AQ354" s="175" t="s">
         <v>923</v>
@@ -47833,11 +47770,11 @@
         <v>880</v>
       </c>
       <c r="D355" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E355" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F355" s="174" t="s">
         <v>13</v>
@@ -47873,28 +47810,28 @@
         <v>1003</v>
       </c>
       <c r="Q355" s="174" t="s">
-        <v>2078</v>
+        <v>2324</v>
       </c>
       <c r="R355" s="174" t="s">
-        <v>2078</v>
+        <v>2324</v>
       </c>
       <c r="S355" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T355" s="180" t="s">
-        <v>2135</v>
+        <v>1318</v>
       </c>
       <c r="U355" s="180" t="s">
-        <v>1430</v>
+        <v>1536</v>
       </c>
       <c r="V355" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W355" s="180" t="s">
-        <v>1576</v>
+        <v>2364</v>
       </c>
       <c r="X355" s="180" t="s">
-        <v>1256</v>
+        <v>1088</v>
       </c>
       <c r="Y355" s="178" t="s">
         <v>945</v>
@@ -47945,10 +47882,10 @@
         <v>972</v>
       </c>
       <c r="AO355" s="175" t="s">
-        <v>2136</v>
+        <v>2365</v>
       </c>
       <c r="AP355" s="175" t="s">
-        <v>2137</v>
+        <v>2366</v>
       </c>
       <c r="AQ355" s="175" t="s">
         <v>923</v>
@@ -47965,11 +47902,11 @@
         <v>880</v>
       </c>
       <c r="D356" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E356" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F356" s="174" t="s">
         <v>13</v>
@@ -48005,28 +47942,28 @@
         <v>1003</v>
       </c>
       <c r="Q356" s="174" t="s">
-        <v>2079</v>
+        <v>2325</v>
       </c>
       <c r="R356" s="174" t="s">
-        <v>2079</v>
+        <v>2325</v>
       </c>
       <c r="S356" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T356" s="180" t="s">
-        <v>1780</v>
+        <v>1108</v>
       </c>
       <c r="U356" s="180" t="s">
-        <v>1287</v>
+        <v>1068</v>
       </c>
       <c r="V356" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W356" s="180" t="s">
-        <v>1346</v>
+        <v>2367</v>
       </c>
       <c r="X356" s="180" t="s">
-        <v>1362</v>
+        <v>1070</v>
       </c>
       <c r="Y356" s="178" t="s">
         <v>945</v>
@@ -48077,10 +48014,10 @@
         <v>972</v>
       </c>
       <c r="AO356" s="175" t="s">
-        <v>2138</v>
+        <v>2368</v>
       </c>
       <c r="AP356" s="175" t="s">
-        <v>2139</v>
+        <v>2369</v>
       </c>
       <c r="AQ356" s="175" t="s">
         <v>923</v>
@@ -48097,11 +48034,11 @@
         <v>880</v>
       </c>
       <c r="D357" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E357" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F357" s="174" t="s">
         <v>13</v>
@@ -48137,28 +48074,28 @@
         <v>1003</v>
       </c>
       <c r="Q357" s="174" t="s">
-        <v>2080</v>
+        <v>1332</v>
       </c>
       <c r="R357" s="174" t="s">
-        <v>2080</v>
+        <v>1332</v>
       </c>
       <c r="S357" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T357" s="180" t="s">
-        <v>1744</v>
+        <v>2370</v>
       </c>
       <c r="U357" s="180" t="s">
-        <v>1062</v>
+        <v>1581</v>
       </c>
       <c r="V357" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W357" s="180" t="s">
-        <v>1163</v>
+        <v>2371</v>
       </c>
       <c r="X357" s="180" t="s">
-        <v>1261</v>
+        <v>1210</v>
       </c>
       <c r="Y357" s="178" t="s">
         <v>945</v>
@@ -48209,10 +48146,10 @@
         <v>972</v>
       </c>
       <c r="AO357" s="175" t="s">
-        <v>2140</v>
+        <v>2372</v>
       </c>
       <c r="AP357" s="175" t="s">
-        <v>2141</v>
+        <v>2373</v>
       </c>
       <c r="AQ357" s="175" t="s">
         <v>923</v>
@@ -48229,11 +48166,11 @@
         <v>880</v>
       </c>
       <c r="D358" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E358" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F358" s="174" t="s">
         <v>13</v>
@@ -48269,28 +48206,28 @@
         <v>1003</v>
       </c>
       <c r="Q358" s="174" t="s">
-        <v>2081</v>
+        <v>1333</v>
       </c>
       <c r="R358" s="174" t="s">
-        <v>2081</v>
+        <v>1333</v>
       </c>
       <c r="S358" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T358" s="180" t="s">
-        <v>1824</v>
+        <v>1308</v>
       </c>
       <c r="U358" s="180" t="s">
-        <v>1296</v>
+        <v>1151</v>
       </c>
       <c r="V358" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W358" s="180" t="s">
-        <v>1699</v>
+        <v>1316</v>
       </c>
       <c r="X358" s="180" t="s">
-        <v>1981</v>
+        <v>1151</v>
       </c>
       <c r="Y358" s="178" t="s">
         <v>945</v>
@@ -48341,10 +48278,10 @@
         <v>972</v>
       </c>
       <c r="AO358" s="175" t="s">
-        <v>2142</v>
+        <v>2374</v>
       </c>
       <c r="AP358" s="175" t="s">
-        <v>2143</v>
+        <v>2375</v>
       </c>
       <c r="AQ358" s="175" t="s">
         <v>923</v>
@@ -48361,11 +48298,11 @@
         <v>880</v>
       </c>
       <c r="D359" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E359" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F359" s="174" t="s">
         <v>13</v>
@@ -48401,28 +48338,28 @@
         <v>1003</v>
       </c>
       <c r="Q359" s="174" t="s">
-        <v>2082</v>
+        <v>1334</v>
       </c>
       <c r="R359" s="174" t="s">
-        <v>2082</v>
+        <v>1334</v>
       </c>
       <c r="S359" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T359" s="180" t="s">
-        <v>1677</v>
+        <v>1624</v>
       </c>
       <c r="U359" s="180" t="s">
-        <v>1399</v>
+        <v>1821</v>
       </c>
       <c r="V359" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W359" s="180" t="s">
-        <v>1412</v>
+        <v>1373</v>
       </c>
       <c r="X359" s="180" t="s">
-        <v>1088</v>
+        <v>1124</v>
       </c>
       <c r="Y359" s="178" t="s">
         <v>945</v>
@@ -48473,10 +48410,10 @@
         <v>972</v>
       </c>
       <c r="AO359" s="175" t="s">
-        <v>2144</v>
+        <v>2376</v>
       </c>
       <c r="AP359" s="175" t="s">
-        <v>2145</v>
+        <v>2377</v>
       </c>
       <c r="AQ359" s="175" t="s">
         <v>923</v>
@@ -48493,11 +48430,11 @@
         <v>880</v>
       </c>
       <c r="D360" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E360" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F360" s="174" t="s">
         <v>13</v>
@@ -48533,16 +48470,16 @@
         <v>1003</v>
       </c>
       <c r="Q360" s="174" t="s">
-        <v>2083</v>
+        <v>1335</v>
       </c>
       <c r="R360" s="174" t="s">
-        <v>2083</v>
+        <v>1335</v>
       </c>
       <c r="S360" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T360" s="180" t="s">
-        <v>2146</v>
+        <v>2378</v>
       </c>
       <c r="U360" s="180" t="s">
         <v>1143</v>
@@ -48551,10 +48488,10 @@
         <v>944</v>
       </c>
       <c r="W360" s="180" t="s">
-        <v>1295</v>
+        <v>1069</v>
       </c>
       <c r="X360" s="180" t="s">
-        <v>1366</v>
+        <v>1598</v>
       </c>
       <c r="Y360" s="178" t="s">
         <v>945</v>
@@ -48605,10 +48542,10 @@
         <v>972</v>
       </c>
       <c r="AO360" s="175" t="s">
-        <v>2147</v>
+        <v>2379</v>
       </c>
       <c r="AP360" s="175" t="s">
-        <v>2148</v>
+        <v>2380</v>
       </c>
       <c r="AQ360" s="175" t="s">
         <v>923</v>
@@ -48625,11 +48562,11 @@
         <v>880</v>
       </c>
       <c r="D361" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E361" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F361" s="174" t="s">
         <v>13</v>
@@ -48665,16 +48602,16 @@
         <v>1003</v>
       </c>
       <c r="Q361" s="174" t="s">
-        <v>2084</v>
+        <v>1336</v>
       </c>
       <c r="R361" s="174" t="s">
-        <v>2084</v>
+        <v>1336</v>
       </c>
       <c r="S361" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T361" s="180" t="s">
-        <v>1684</v>
+        <v>2381</v>
       </c>
       <c r="U361" s="180" t="s">
         <v>1416</v>
@@ -48683,10 +48620,10 @@
         <v>944</v>
       </c>
       <c r="W361" s="180" t="s">
-        <v>1738</v>
+        <v>1631</v>
       </c>
       <c r="X361" s="180" t="s">
-        <v>1178</v>
+        <v>1248</v>
       </c>
       <c r="Y361" s="178" t="s">
         <v>945</v>
@@ -48737,10 +48674,10 @@
         <v>972</v>
       </c>
       <c r="AO361" s="175" t="s">
-        <v>2149</v>
+        <v>2382</v>
       </c>
       <c r="AP361" s="175" t="s">
-        <v>2150</v>
+        <v>2383</v>
       </c>
       <c r="AQ361" s="175" t="s">
         <v>923</v>
@@ -48757,11 +48694,11 @@
         <v>880</v>
       </c>
       <c r="D362" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E362" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F362" s="174" t="s">
         <v>13</v>
@@ -48797,28 +48734,28 @@
         <v>1003</v>
       </c>
       <c r="Q362" s="174" t="s">
-        <v>2085</v>
+        <v>1337</v>
       </c>
       <c r="R362" s="174" t="s">
-        <v>2085</v>
+        <v>1337</v>
       </c>
       <c r="S362" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T362" s="180" t="s">
-        <v>1152</v>
+        <v>2384</v>
       </c>
       <c r="U362" s="180" t="s">
-        <v>1062</v>
+        <v>1304</v>
       </c>
       <c r="V362" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W362" s="180" t="s">
-        <v>2151</v>
+        <v>2033</v>
       </c>
       <c r="X362" s="180" t="s">
-        <v>1261</v>
+        <v>1194</v>
       </c>
       <c r="Y362" s="178" t="s">
         <v>945</v>
@@ -48869,10 +48806,10 @@
         <v>972</v>
       </c>
       <c r="AO362" s="175" t="s">
-        <v>2152</v>
+        <v>2385</v>
       </c>
       <c r="AP362" s="175" t="s">
-        <v>2153</v>
+        <v>2386</v>
       </c>
       <c r="AQ362" s="175" t="s">
         <v>923</v>
@@ -48889,11 +48826,11 @@
         <v>880</v>
       </c>
       <c r="D363" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E363" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F363" s="174" t="s">
         <v>13</v>
@@ -48929,28 +48866,28 @@
         <v>1003</v>
       </c>
       <c r="Q363" s="174" t="s">
-        <v>2086</v>
+        <v>1338</v>
       </c>
       <c r="R363" s="174" t="s">
-        <v>2086</v>
+        <v>1338</v>
       </c>
       <c r="S363" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T363" s="180" t="s">
-        <v>1624</v>
+        <v>1206</v>
       </c>
       <c r="U363" s="180" t="s">
-        <v>1514</v>
+        <v>1141</v>
       </c>
       <c r="V363" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W363" s="180" t="s">
-        <v>2154</v>
+        <v>2387</v>
       </c>
       <c r="X363" s="180" t="s">
-        <v>1194</v>
+        <v>1124</v>
       </c>
       <c r="Y363" s="178" t="s">
         <v>945</v>
@@ -49001,10 +48938,10 @@
         <v>972</v>
       </c>
       <c r="AO363" s="175" t="s">
-        <v>2155</v>
+        <v>2388</v>
       </c>
       <c r="AP363" s="175" t="s">
-        <v>2156</v>
+        <v>2389</v>
       </c>
       <c r="AQ363" s="175" t="s">
         <v>923</v>
@@ -49021,11 +48958,11 @@
         <v>880</v>
       </c>
       <c r="D364" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E364" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F364" s="174" t="s">
         <v>13</v>
@@ -49061,28 +48998,28 @@
         <v>1003</v>
       </c>
       <c r="Q364" s="174" t="s">
-        <v>2087</v>
+        <v>1339</v>
       </c>
       <c r="R364" s="174" t="s">
-        <v>2087</v>
+        <v>1339</v>
       </c>
       <c r="S364" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T364" s="180" t="s">
-        <v>2157</v>
+        <v>2390</v>
       </c>
       <c r="U364" s="180" t="s">
-        <v>1981</v>
+        <v>1121</v>
       </c>
       <c r="V364" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W364" s="180" t="s">
-        <v>1829</v>
+        <v>1063</v>
       </c>
       <c r="X364" s="180" t="s">
-        <v>1097</v>
+        <v>1416</v>
       </c>
       <c r="Y364" s="178" t="s">
         <v>945</v>
@@ -49133,10 +49070,10 @@
         <v>972</v>
       </c>
       <c r="AO364" s="175" t="s">
-        <v>2158</v>
+        <v>2391</v>
       </c>
       <c r="AP364" s="175" t="s">
-        <v>2159</v>
+        <v>2392</v>
       </c>
       <c r="AQ364" s="175" t="s">
         <v>923</v>
@@ -49153,11 +49090,11 @@
         <v>880</v>
       </c>
       <c r="D365" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E365" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F365" s="174" t="s">
         <v>13</v>
@@ -49193,28 +49130,28 @@
         <v>1003</v>
       </c>
       <c r="Q365" s="174" t="s">
-        <v>2088</v>
+        <v>1340</v>
       </c>
       <c r="R365" s="174" t="s">
-        <v>2088</v>
+        <v>1340</v>
       </c>
       <c r="S365" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T365" s="180" t="s">
-        <v>1666</v>
+        <v>2393</v>
       </c>
       <c r="U365" s="180" t="s">
-        <v>1199</v>
+        <v>1132</v>
       </c>
       <c r="V365" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W365" s="180" t="s">
-        <v>2160</v>
+        <v>2394</v>
       </c>
       <c r="X365" s="180" t="s">
-        <v>1284</v>
+        <v>1821</v>
       </c>
       <c r="Y365" s="178" t="s">
         <v>945</v>
@@ -49265,10 +49202,10 @@
         <v>972</v>
       </c>
       <c r="AO365" s="175" t="s">
-        <v>2161</v>
+        <v>2395</v>
       </c>
       <c r="AP365" s="175" t="s">
-        <v>2162</v>
+        <v>2396</v>
       </c>
       <c r="AQ365" s="175" t="s">
         <v>923</v>
@@ -49285,11 +49222,11 @@
         <v>880</v>
       </c>
       <c r="D366" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E366" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F366" s="174" t="s">
         <v>13</v>
@@ -49325,28 +49262,28 @@
         <v>1003</v>
       </c>
       <c r="Q366" s="174" t="s">
-        <v>2089</v>
+        <v>1341</v>
       </c>
       <c r="R366" s="174" t="s">
-        <v>2089</v>
+        <v>1341</v>
       </c>
       <c r="S366" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T366" s="180" t="s">
-        <v>2163</v>
+        <v>1241</v>
       </c>
       <c r="U366" s="180" t="s">
-        <v>1347</v>
+        <v>1121</v>
       </c>
       <c r="V366" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W366" s="180" t="s">
-        <v>1397</v>
+        <v>2397</v>
       </c>
       <c r="X366" s="180" t="s">
-        <v>1178</v>
+        <v>1430</v>
       </c>
       <c r="Y366" s="178" t="s">
         <v>945</v>
@@ -49397,10 +49334,10 @@
         <v>972</v>
       </c>
       <c r="AO366" s="175" t="s">
-        <v>2164</v>
+        <v>2398</v>
       </c>
       <c r="AP366" s="175" t="s">
-        <v>2165</v>
+        <v>2399</v>
       </c>
       <c r="AQ366" s="175" t="s">
         <v>923</v>
@@ -49417,11 +49354,11 @@
         <v>880</v>
       </c>
       <c r="D367" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E367" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F367" s="174" t="s">
         <v>13</v>
@@ -49457,28 +49394,28 @@
         <v>1003</v>
       </c>
       <c r="Q367" s="174" t="s">
-        <v>2090</v>
+        <v>2326</v>
       </c>
       <c r="R367" s="174" t="s">
-        <v>2090</v>
+        <v>2326</v>
       </c>
       <c r="S367" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T367" s="180" t="s">
-        <v>2166</v>
+        <v>2400</v>
       </c>
       <c r="U367" s="180" t="s">
-        <v>1093</v>
+        <v>1347</v>
       </c>
       <c r="V367" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W367" s="180" t="s">
-        <v>2167</v>
+        <v>1254</v>
       </c>
       <c r="X367" s="180" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="Y367" s="178" t="s">
         <v>945</v>
@@ -49529,10 +49466,10 @@
         <v>972</v>
       </c>
       <c r="AO367" s="175" t="s">
-        <v>2168</v>
+        <v>2401</v>
       </c>
       <c r="AP367" s="175" t="s">
-        <v>2169</v>
+        <v>2402</v>
       </c>
       <c r="AQ367" s="175" t="s">
         <v>923</v>
@@ -49549,11 +49486,11 @@
         <v>880</v>
       </c>
       <c r="D368" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E368" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F368" s="174" t="s">
         <v>13</v>
@@ -49589,28 +49526,28 @@
         <v>1003</v>
       </c>
       <c r="Q368" s="174" t="s">
-        <v>2091</v>
+        <v>2327</v>
       </c>
       <c r="R368" s="174" t="s">
-        <v>2091</v>
+        <v>2327</v>
       </c>
       <c r="S368" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T368" s="180" t="s">
-        <v>1567</v>
+        <v>1911</v>
       </c>
       <c r="U368" s="180" t="s">
-        <v>1126</v>
+        <v>1430</v>
       </c>
       <c r="V368" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W368" s="180" t="s">
-        <v>2170</v>
+        <v>2278</v>
       </c>
       <c r="X368" s="180" t="s">
-        <v>1183</v>
+        <v>1143</v>
       </c>
       <c r="Y368" s="178" t="s">
         <v>945</v>
@@ -49661,10 +49598,10 @@
         <v>972</v>
       </c>
       <c r="AO368" s="175" t="s">
-        <v>2171</v>
+        <v>2403</v>
       </c>
       <c r="AP368" s="175" t="s">
-        <v>2172</v>
+        <v>2404</v>
       </c>
       <c r="AQ368" s="175" t="s">
         <v>923</v>
@@ -49681,11 +49618,11 @@
         <v>880</v>
       </c>
       <c r="D369" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E369" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F369" s="174" t="s">
         <v>13</v>
@@ -49721,28 +49658,28 @@
         <v>1003</v>
       </c>
       <c r="Q369" s="174" t="s">
-        <v>2092</v>
+        <v>2328</v>
       </c>
       <c r="R369" s="174" t="s">
-        <v>2092</v>
+        <v>2328</v>
       </c>
       <c r="S369" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T369" s="180" t="s">
-        <v>1573</v>
+        <v>1933</v>
       </c>
       <c r="U369" s="180" t="s">
-        <v>1082</v>
+        <v>1734</v>
       </c>
       <c r="V369" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W369" s="180" t="s">
-        <v>2173</v>
+        <v>2405</v>
       </c>
       <c r="X369" s="180" t="s">
-        <v>1581</v>
+        <v>1190</v>
       </c>
       <c r="Y369" s="178" t="s">
         <v>945</v>
@@ -49793,10 +49730,10 @@
         <v>972</v>
       </c>
       <c r="AO369" s="175" t="s">
-        <v>2174</v>
+        <v>2406</v>
       </c>
       <c r="AP369" s="175" t="s">
-        <v>2175</v>
+        <v>2407</v>
       </c>
       <c r="AQ369" s="175" t="s">
         <v>923</v>
@@ -49813,11 +49750,11 @@
         <v>880</v>
       </c>
       <c r="D370" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E370" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F370" s="174" t="s">
         <v>13</v>
@@ -49853,28 +49790,28 @@
         <v>1003</v>
       </c>
       <c r="Q370" s="174" t="s">
-        <v>2093</v>
+        <v>2329</v>
       </c>
       <c r="R370" s="174" t="s">
-        <v>2093</v>
+        <v>2329</v>
       </c>
       <c r="S370" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T370" s="180" t="s">
-        <v>2176</v>
+        <v>1129</v>
       </c>
       <c r="U370" s="180" t="s">
-        <v>1105</v>
+        <v>1261</v>
       </c>
       <c r="V370" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W370" s="180" t="s">
-        <v>2177</v>
+        <v>1246</v>
       </c>
       <c r="X370" s="180" t="s">
-        <v>1278</v>
+        <v>1210</v>
       </c>
       <c r="Y370" s="178" t="s">
         <v>945</v>
@@ -49925,10 +49862,10 @@
         <v>972</v>
       </c>
       <c r="AO370" s="175" t="s">
-        <v>2178</v>
+        <v>2408</v>
       </c>
       <c r="AP370" s="175" t="s">
-        <v>2179</v>
+        <v>2409</v>
       </c>
       <c r="AQ370" s="175" t="s">
         <v>923</v>
@@ -49945,11 +49882,11 @@
         <v>880</v>
       </c>
       <c r="D371" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E371" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F371" s="174" t="s">
         <v>13</v>
@@ -49985,28 +49922,28 @@
         <v>1003</v>
       </c>
       <c r="Q371" s="174" t="s">
-        <v>2094</v>
+        <v>2330</v>
       </c>
       <c r="R371" s="174" t="s">
-        <v>2094</v>
+        <v>2330</v>
       </c>
       <c r="S371" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T371" s="180" t="s">
-        <v>2180</v>
+        <v>1421</v>
       </c>
       <c r="U371" s="180" t="s">
-        <v>1121</v>
+        <v>1282</v>
       </c>
       <c r="V371" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W371" s="180" t="s">
-        <v>1663</v>
+        <v>2054</v>
       </c>
       <c r="X371" s="180" t="s">
-        <v>1430</v>
+        <v>1917</v>
       </c>
       <c r="Y371" s="178" t="s">
         <v>945</v>
@@ -50057,10 +49994,10 @@
         <v>972</v>
       </c>
       <c r="AO371" s="175" t="s">
-        <v>2181</v>
+        <v>2410</v>
       </c>
       <c r="AP371" s="175" t="s">
-        <v>2182</v>
+        <v>2411</v>
       </c>
       <c r="AQ371" s="175" t="s">
         <v>923</v>
@@ -50077,11 +50014,11 @@
         <v>880</v>
       </c>
       <c r="D372" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E372" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F372" s="174" t="s">
         <v>13</v>
@@ -50117,28 +50054,28 @@
         <v>1003</v>
       </c>
       <c r="Q372" s="174" t="s">
-        <v>2095</v>
+        <v>2331</v>
       </c>
       <c r="R372" s="174" t="s">
-        <v>2095</v>
+        <v>2331</v>
       </c>
       <c r="S372" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T372" s="180" t="s">
-        <v>2183</v>
+        <v>1098</v>
       </c>
       <c r="U372" s="180" t="s">
-        <v>1099</v>
+        <v>1141</v>
       </c>
       <c r="V372" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W372" s="180" t="s">
-        <v>1386</v>
+        <v>2412</v>
       </c>
       <c r="X372" s="180" t="s">
-        <v>1362</v>
+        <v>990</v>
       </c>
       <c r="Y372" s="178" t="s">
         <v>945</v>
@@ -50189,10 +50126,10 @@
         <v>972</v>
       </c>
       <c r="AO372" s="175" t="s">
-        <v>2184</v>
+        <v>2413</v>
       </c>
       <c r="AP372" s="175" t="s">
-        <v>2185</v>
+        <v>2414</v>
       </c>
       <c r="AQ372" s="175" t="s">
         <v>923</v>
@@ -50209,11 +50146,11 @@
         <v>880</v>
       </c>
       <c r="D373" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E373" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F373" s="174" t="s">
         <v>13</v>
@@ -50249,28 +50186,28 @@
         <v>1003</v>
       </c>
       <c r="Q373" s="174" t="s">
-        <v>2096</v>
+        <v>2332</v>
       </c>
       <c r="R373" s="174" t="s">
-        <v>2096</v>
+        <v>2332</v>
       </c>
       <c r="S373" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T373" s="180" t="s">
-        <v>2186</v>
+        <v>2415</v>
       </c>
       <c r="U373" s="180" t="s">
-        <v>1282</v>
+        <v>1194</v>
       </c>
       <c r="V373" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W373" s="180" t="s">
-        <v>1172</v>
+        <v>1733</v>
       </c>
       <c r="X373" s="180" t="s">
-        <v>1981</v>
+        <v>1408</v>
       </c>
       <c r="Y373" s="178" t="s">
         <v>945</v>
@@ -50321,10 +50258,10 @@
         <v>972</v>
       </c>
       <c r="AO373" s="175" t="s">
-        <v>2187</v>
+        <v>2416</v>
       </c>
       <c r="AP373" s="175" t="s">
-        <v>2188</v>
+        <v>2417</v>
       </c>
       <c r="AQ373" s="175" t="s">
         <v>923</v>
@@ -50341,11 +50278,11 @@
         <v>880</v>
       </c>
       <c r="D374" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E374" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F374" s="174" t="s">
         <v>13</v>
@@ -50381,28 +50318,28 @@
         <v>1003</v>
       </c>
       <c r="Q374" s="174" t="s">
-        <v>2097</v>
+        <v>2333</v>
       </c>
       <c r="R374" s="174" t="s">
-        <v>2097</v>
+        <v>2333</v>
       </c>
       <c r="S374" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T374" s="180" t="s">
-        <v>2189</v>
+        <v>1539</v>
       </c>
       <c r="U374" s="180" t="s">
-        <v>1093</v>
+        <v>1151</v>
       </c>
       <c r="V374" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W374" s="180" t="s">
-        <v>2117</v>
+        <v>2418</v>
       </c>
       <c r="X374" s="180" t="s">
-        <v>1109</v>
+        <v>1917</v>
       </c>
       <c r="Y374" s="178" t="s">
         <v>945</v>
@@ -50453,10 +50390,10 @@
         <v>972</v>
       </c>
       <c r="AO374" s="175" t="s">
-        <v>2190</v>
+        <v>2419</v>
       </c>
       <c r="AP374" s="175" t="s">
-        <v>2191</v>
+        <v>2420</v>
       </c>
       <c r="AQ374" s="175" t="s">
         <v>923</v>
@@ -50473,11 +50410,11 @@
         <v>880</v>
       </c>
       <c r="D375" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E375" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F375" s="174" t="s">
         <v>13</v>
@@ -50513,28 +50450,28 @@
         <v>1003</v>
       </c>
       <c r="Q375" s="174" t="s">
-        <v>2098</v>
+        <v>2334</v>
       </c>
       <c r="R375" s="174" t="s">
-        <v>2098</v>
+        <v>2334</v>
       </c>
       <c r="S375" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T375" s="180" t="s">
-        <v>2192</v>
+        <v>1521</v>
       </c>
       <c r="U375" s="180" t="s">
-        <v>1124</v>
+        <v>1527</v>
       </c>
       <c r="V375" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W375" s="180" t="s">
-        <v>2193</v>
+        <v>1231</v>
       </c>
       <c r="X375" s="180" t="s">
-        <v>1109</v>
+        <v>1169</v>
       </c>
       <c r="Y375" s="178" t="s">
         <v>945</v>
@@ -50585,10 +50522,10 @@
         <v>972</v>
       </c>
       <c r="AO375" s="175" t="s">
-        <v>2194</v>
+        <v>2421</v>
       </c>
       <c r="AP375" s="175" t="s">
-        <v>2195</v>
+        <v>2422</v>
       </c>
       <c r="AQ375" s="175" t="s">
         <v>923</v>
@@ -50605,11 +50542,11 @@
         <v>880</v>
       </c>
       <c r="D376" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E376" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F376" s="174" t="s">
         <v>13</v>
@@ -50636,7 +50573,7 @@
         <v>987</v>
       </c>
       <c r="N376" s="176" t="s">
-        <v>2109</v>
+        <v>2071</v>
       </c>
       <c r="O376" s="176" t="s">
         <v>1008</v>
@@ -50645,28 +50582,28 @@
         <v>1003</v>
       </c>
       <c r="Q376" s="174" t="s">
-        <v>2099</v>
+        <v>2335</v>
       </c>
       <c r="R376" s="174" t="s">
-        <v>2099</v>
+        <v>2335</v>
       </c>
       <c r="S376" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T376" s="180" t="s">
-        <v>1386</v>
+        <v>2423</v>
       </c>
       <c r="U376" s="180" t="s">
-        <v>1124</v>
+        <v>1821</v>
       </c>
       <c r="V376" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W376" s="180" t="s">
-        <v>1702</v>
+        <v>1531</v>
       </c>
       <c r="X376" s="180" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="Y376" s="178" t="s">
         <v>945</v>
@@ -50717,10 +50654,10 @@
         <v>972</v>
       </c>
       <c r="AO376" s="175" t="s">
-        <v>2196</v>
+        <v>2424</v>
       </c>
       <c r="AP376" s="175" t="s">
-        <v>2197</v>
+        <v>2425</v>
       </c>
       <c r="AQ376" s="175" t="s">
         <v>923</v>
@@ -50737,11 +50674,11 @@
         <v>880</v>
       </c>
       <c r="D377" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E377" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F377" s="174" t="s">
         <v>13</v>
@@ -50768,7 +50705,7 @@
         <v>987</v>
       </c>
       <c r="N377" s="176" t="s">
-        <v>2109</v>
+        <v>2071</v>
       </c>
       <c r="O377" s="176" t="s">
         <v>1008</v>
@@ -50777,28 +50714,28 @@
         <v>1003</v>
       </c>
       <c r="Q377" s="174" t="s">
-        <v>2100</v>
+        <v>2336</v>
       </c>
       <c r="R377" s="174" t="s">
-        <v>2100</v>
+        <v>2336</v>
       </c>
       <c r="S377" s="177" t="s">
         <v>952</v>
       </c>
       <c r="T377" s="180" t="s">
-        <v>2253</v>
+        <v>2025</v>
       </c>
       <c r="U377" s="180" t="s">
-        <v>1116</v>
+        <v>1088</v>
       </c>
       <c r="V377" s="178" t="s">
         <v>944</v>
       </c>
       <c r="W377" s="180" t="s">
-        <v>1606</v>
+        <v>2426</v>
       </c>
       <c r="X377" s="180" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="Y377" s="178" t="s">
         <v>945</v>
@@ -50849,10 +50786,10 @@
         <v>972</v>
       </c>
       <c r="AO377" s="175" t="s">
-        <v>2254</v>
+        <v>2427</v>
       </c>
       <c r="AP377" s="175" t="s">
-        <v>2255</v>
+        <v>2428</v>
       </c>
       <c r="AQ377" s="175" t="s">
         <v>923</v>
@@ -50869,11 +50806,11 @@
         <v>880</v>
       </c>
       <c r="D378" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E378" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F378" s="174" t="s">
         <v>13</v>
@@ -50903,35 +50840,27 @@
         <v>1008</v>
       </c>
       <c r="O378" s="176" t="s">
-        <v>2110</v>
+        <v>2072</v>
       </c>
       <c r="P378" s="176" t="s">
         <v>1003</v>
       </c>
       <c r="Q378" s="174" t="s">
-        <v>2101</v>
+        <v>2337</v>
       </c>
       <c r="R378" s="174" t="s">
-        <v>2101</v>
+        <v>2337</v>
       </c>
       <c r="S378" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T378" s="180" t="s">
-        <v>2252</v>
-      </c>
-      <c r="U378" s="180" t="s">
-        <v>1121</v>
-      </c>
+      <c r="T378" s="180"/>
+      <c r="U378" s="180"/>
       <c r="V378" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W378" s="180" t="s">
-        <v>1924</v>
-      </c>
-      <c r="X378" s="180" t="s">
-        <v>1088</v>
-      </c>
+      <c r="W378" s="180"/>
+      <c r="X378" s="180"/>
       <c r="Y378" s="178" t="s">
         <v>945</v>
       </c>
@@ -50977,18 +50906,10 @@
       <c r="AM378" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN378" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO378" s="175" t="s">
-        <v>2198</v>
-      </c>
-      <c r="AP378" s="175" t="s">
-        <v>2199</v>
-      </c>
-      <c r="AQ378" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN378" s="175"/>
+      <c r="AO378" s="175"/>
+      <c r="AP378" s="175"/>
+      <c r="AQ378" s="175"/>
     </row>
     <row r="379" spans="1:43">
       <c r="A379" s="173" t="s">
@@ -51001,11 +50922,11 @@
         <v>880</v>
       </c>
       <c r="D379" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E379" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F379" s="174" t="s">
         <v>13</v>
@@ -51035,35 +50956,27 @@
         <v>1008</v>
       </c>
       <c r="O379" s="176" t="s">
-        <v>2110</v>
+        <v>2072</v>
       </c>
       <c r="P379" s="176" t="s">
         <v>1003</v>
       </c>
       <c r="Q379" s="174" t="s">
-        <v>2102</v>
+        <v>2338</v>
       </c>
       <c r="R379" s="174" t="s">
-        <v>2102</v>
+        <v>2338</v>
       </c>
       <c r="S379" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T379" s="180" t="s">
-        <v>1184</v>
-      </c>
-      <c r="U379" s="180" t="s">
-        <v>1153</v>
-      </c>
+      <c r="T379" s="180"/>
+      <c r="U379" s="180"/>
       <c r="V379" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W379" s="180" t="s">
-        <v>2151</v>
-      </c>
-      <c r="X379" s="180" t="s">
-        <v>1080</v>
-      </c>
+      <c r="W379" s="180"/>
+      <c r="X379" s="180"/>
       <c r="Y379" s="178" t="s">
         <v>945</v>
       </c>
@@ -51109,18 +51022,10 @@
       <c r="AM379" s="175" t="s">
         <v>1007</v>
       </c>
-      <c r="AN379" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO379" s="175" t="s">
-        <v>2200</v>
-      </c>
-      <c r="AP379" s="175" t="s">
-        <v>2201</v>
-      </c>
-      <c r="AQ379" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN379" s="175"/>
+      <c r="AO379" s="175"/>
+      <c r="AP379" s="175"/>
+      <c r="AQ379" s="175"/>
     </row>
     <row r="380" spans="1:43">
       <c r="A380" s="173" t="s">
@@ -51133,11 +51038,11 @@
         <v>880</v>
       </c>
       <c r="D380" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E380" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F380" s="174" t="s">
         <v>13</v>
@@ -51167,35 +51072,27 @@
         <v>1008</v>
       </c>
       <c r="O380" s="176" t="s">
-        <v>2110</v>
+        <v>2072</v>
       </c>
       <c r="P380" s="176" t="s">
         <v>1003</v>
       </c>
       <c r="Q380" s="174" t="s">
-        <v>2103</v>
+        <v>2339</v>
       </c>
       <c r="R380" s="174" t="s">
-        <v>2103</v>
+        <v>2339</v>
       </c>
       <c r="S380" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T380" s="180" t="s">
-        <v>2126</v>
-      </c>
-      <c r="U380" s="180" t="s">
-        <v>1183</v>
-      </c>
+      <c r="T380" s="180"/>
+      <c r="U380" s="180"/>
       <c r="V380" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W380" s="180" t="s">
-        <v>2202</v>
-      </c>
-      <c r="X380" s="180" t="s">
-        <v>1068</v>
-      </c>
+      <c r="W380" s="180"/>
+      <c r="X380" s="180"/>
       <c r="Y380" s="178" t="s">
         <v>945</v>
       </c>
@@ -51241,18 +51138,10 @@
       <c r="AM380" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN380" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO380" s="175" t="s">
-        <v>2203</v>
-      </c>
-      <c r="AP380" s="175" t="s">
-        <v>2204</v>
-      </c>
-      <c r="AQ380" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN380" s="175"/>
+      <c r="AO380" s="175"/>
+      <c r="AP380" s="175"/>
+      <c r="AQ380" s="175"/>
     </row>
     <row r="381" spans="1:43">
       <c r="A381" s="173" t="s">
@@ -51265,11 +51154,11 @@
         <v>880</v>
       </c>
       <c r="D381" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E381" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F381" s="174" t="s">
         <v>13</v>
@@ -51299,35 +51188,27 @@
         <v>1008</v>
       </c>
       <c r="O381" s="176" t="s">
-        <v>2110</v>
+        <v>2072</v>
       </c>
       <c r="P381" s="176" t="s">
         <v>1003</v>
       </c>
       <c r="Q381" s="174" t="s">
-        <v>2104</v>
+        <v>2340</v>
       </c>
       <c r="R381" s="174" t="s">
-        <v>2104</v>
+        <v>2340</v>
       </c>
       <c r="S381" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T381" s="180" t="s">
-        <v>1785</v>
-      </c>
-      <c r="U381" s="180" t="s">
-        <v>1369</v>
-      </c>
+      <c r="T381" s="180"/>
+      <c r="U381" s="180"/>
       <c r="V381" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W381" s="180" t="s">
-        <v>2205</v>
-      </c>
-      <c r="X381" s="180" t="s">
-        <v>1282</v>
-      </c>
+      <c r="W381" s="180"/>
+      <c r="X381" s="180"/>
       <c r="Y381" s="178" t="s">
         <v>945</v>
       </c>
@@ -51373,18 +51254,10 @@
       <c r="AM381" s="175" t="s">
         <v>1012</v>
       </c>
-      <c r="AN381" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO381" s="175" t="s">
-        <v>2206</v>
-      </c>
-      <c r="AP381" s="175" t="s">
-        <v>2207</v>
-      </c>
-      <c r="AQ381" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN381" s="175"/>
+      <c r="AO381" s="175"/>
+      <c r="AP381" s="175"/>
+      <c r="AQ381" s="175"/>
     </row>
     <row r="382" spans="1:43">
       <c r="A382" s="173" t="s">
@@ -51397,11 +51270,11 @@
         <v>880</v>
       </c>
       <c r="D382" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E382" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F382" s="174" t="s">
         <v>13</v>
@@ -51431,35 +51304,27 @@
         <v>1008</v>
       </c>
       <c r="O382" s="176" t="s">
-        <v>2110</v>
+        <v>2072</v>
       </c>
       <c r="P382" s="176" t="s">
         <v>1003</v>
       </c>
       <c r="Q382" s="174" t="s">
-        <v>2105</v>
+        <v>2341</v>
       </c>
       <c r="R382" s="174" t="s">
-        <v>2105</v>
+        <v>2341</v>
       </c>
       <c r="S382" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T382" s="180" t="s">
-        <v>2120</v>
-      </c>
-      <c r="U382" s="180" t="s">
-        <v>1581</v>
-      </c>
+      <c r="T382" s="180"/>
+      <c r="U382" s="180"/>
       <c r="V382" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W382" s="180" t="s">
-        <v>2028</v>
-      </c>
-      <c r="X382" s="180" t="s">
-        <v>1136</v>
-      </c>
+      <c r="W382" s="180"/>
+      <c r="X382" s="180"/>
       <c r="Y382" s="178" t="s">
         <v>945</v>
       </c>
@@ -51505,18 +51370,10 @@
       <c r="AM382" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN382" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO382" s="175" t="s">
-        <v>2208</v>
-      </c>
-      <c r="AP382" s="175" t="s">
-        <v>2209</v>
-      </c>
-      <c r="AQ382" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN382" s="175"/>
+      <c r="AO382" s="175"/>
+      <c r="AP382" s="175"/>
+      <c r="AQ382" s="175"/>
     </row>
     <row r="383" spans="1:43">
       <c r="A383" s="173" t="s">
@@ -51529,11 +51386,11 @@
         <v>880</v>
       </c>
       <c r="D383" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E383" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F383" s="174" t="s">
         <v>13</v>
@@ -51569,29 +51426,21 @@
         <v>1003</v>
       </c>
       <c r="Q383" s="174" t="s">
-        <v>2106</v>
+        <v>2342</v>
       </c>
       <c r="R383" s="174" t="s">
-        <v>2106</v>
+        <v>2342</v>
       </c>
       <c r="S383" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T383" s="180" t="s">
-        <v>2180</v>
-      </c>
-      <c r="U383" s="180" t="s">
-        <v>1183</v>
-      </c>
+      <c r="T383" s="180"/>
+      <c r="U383" s="180"/>
       <c r="V383" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W383" s="180" t="s">
-        <v>2123</v>
-      </c>
-      <c r="X383" s="180" t="s">
-        <v>1062</v>
-      </c>
+      <c r="W383" s="180"/>
+      <c r="X383" s="180"/>
       <c r="Y383" s="178" t="s">
         <v>945</v>
       </c>
@@ -51637,18 +51486,10 @@
       <c r="AM383" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN383" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO383" s="175" t="s">
-        <v>2210</v>
-      </c>
-      <c r="AP383" s="175" t="s">
-        <v>2211</v>
-      </c>
-      <c r="AQ383" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN383" s="175"/>
+      <c r="AO383" s="175"/>
+      <c r="AP383" s="175"/>
+      <c r="AQ383" s="175"/>
     </row>
     <row r="384" spans="1:43">
       <c r="A384" s="173" t="s">
@@ -51661,11 +51502,11 @@
         <v>880</v>
       </c>
       <c r="D384" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E384" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F384" s="174" t="s">
         <v>13</v>
@@ -51701,29 +51542,21 @@
         <v>1003</v>
       </c>
       <c r="Q384" s="174" t="s">
-        <v>2107</v>
+        <v>2343</v>
       </c>
       <c r="R384" s="174" t="s">
-        <v>2107</v>
+        <v>2343</v>
       </c>
       <c r="S384" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T384" s="180" t="s">
-        <v>2212</v>
-      </c>
-      <c r="U384" s="180" t="s">
-        <v>1220</v>
-      </c>
+      <c r="T384" s="180"/>
+      <c r="U384" s="180"/>
       <c r="V384" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W384" s="180" t="s">
-        <v>2213</v>
-      </c>
-      <c r="X384" s="180" t="s">
-        <v>1080</v>
-      </c>
+      <c r="W384" s="180"/>
+      <c r="X384" s="180"/>
       <c r="Y384" s="178" t="s">
         <v>945</v>
       </c>
@@ -51769,18 +51602,10 @@
       <c r="AM384" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN384" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO384" s="175" t="s">
-        <v>2214</v>
-      </c>
-      <c r="AP384" s="175" t="s">
-        <v>2215</v>
-      </c>
-      <c r="AQ384" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN384" s="175"/>
+      <c r="AO384" s="175"/>
+      <c r="AP384" s="175"/>
+      <c r="AQ384" s="175"/>
     </row>
     <row r="385" spans="1:43">
       <c r="A385" s="173" t="s">
@@ -51793,11 +51618,11 @@
         <v>880</v>
       </c>
       <c r="D385" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E385" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F385" s="174" t="s">
         <v>13</v>
@@ -51833,29 +51658,21 @@
         <v>1003</v>
       </c>
       <c r="Q385" s="174" t="s">
-        <v>2108</v>
+        <v>2344</v>
       </c>
       <c r="R385" s="174" t="s">
-        <v>2108</v>
+        <v>2344</v>
       </c>
       <c r="S385" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T385" s="180" t="s">
-        <v>1886</v>
-      </c>
-      <c r="U385" s="180" t="s">
-        <v>1287</v>
-      </c>
+      <c r="T385" s="180"/>
+      <c r="U385" s="180"/>
       <c r="V385" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W385" s="180" t="s">
-        <v>2216</v>
-      </c>
-      <c r="X385" s="180" t="s">
-        <v>1527</v>
-      </c>
+      <c r="W385" s="180"/>
+      <c r="X385" s="180"/>
       <c r="Y385" s="178" t="s">
         <v>945</v>
       </c>
@@ -51901,18 +51718,10 @@
       <c r="AM385" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN385" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO385" s="175" t="s">
-        <v>2217</v>
-      </c>
-      <c r="AP385" s="175" t="s">
-        <v>2218</v>
-      </c>
-      <c r="AQ385" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN385" s="175"/>
+      <c r="AO385" s="175"/>
+      <c r="AP385" s="175"/>
+      <c r="AQ385" s="175"/>
     </row>
     <row r="386" spans="1:43">
       <c r="A386" s="173" t="s">
@@ -51925,11 +51734,11 @@
         <v>880</v>
       </c>
       <c r="D386" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E386" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F386" s="174" t="s">
         <v>13</v>
@@ -51965,29 +51774,21 @@
         <v>1003</v>
       </c>
       <c r="Q386" s="174" t="s">
-        <v>992</v>
+        <v>2345</v>
       </c>
       <c r="R386" s="174" t="s">
-        <v>992</v>
+        <v>2345</v>
       </c>
       <c r="S386" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T386" s="180" t="s">
-        <v>2219</v>
-      </c>
-      <c r="U386" s="180" t="s">
-        <v>1141</v>
-      </c>
+      <c r="T386" s="180"/>
+      <c r="U386" s="180"/>
       <c r="V386" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W386" s="180" t="s">
-        <v>2220</v>
-      </c>
-      <c r="X386" s="180" t="s">
-        <v>1317</v>
-      </c>
+      <c r="W386" s="180"/>
+      <c r="X386" s="180"/>
       <c r="Y386" s="178" t="s">
         <v>945</v>
       </c>
@@ -52033,18 +51834,10 @@
       <c r="AM386" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN386" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO386" s="175" t="s">
-        <v>2221</v>
-      </c>
-      <c r="AP386" s="175" t="s">
-        <v>2222</v>
-      </c>
-      <c r="AQ386" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN386" s="175"/>
+      <c r="AO386" s="175"/>
+      <c r="AP386" s="175"/>
+      <c r="AQ386" s="175"/>
     </row>
     <row r="387" spans="1:43">
       <c r="A387" s="173" t="s">
@@ -52057,11 +51850,11 @@
         <v>880</v>
       </c>
       <c r="D387" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E387" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F387" s="174" t="s">
         <v>13</v>
@@ -52097,29 +51890,21 @@
         <v>1003</v>
       </c>
       <c r="Q387" s="174" t="s">
-        <v>993</v>
+        <v>2239</v>
       </c>
       <c r="R387" s="174" t="s">
-        <v>993</v>
+        <v>2239</v>
       </c>
       <c r="S387" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T387" s="180" t="s">
-        <v>2223</v>
-      </c>
-      <c r="U387" s="180" t="s">
-        <v>1317</v>
-      </c>
+      <c r="T387" s="180"/>
+      <c r="U387" s="180"/>
       <c r="V387" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W387" s="180" t="s">
-        <v>2224</v>
-      </c>
-      <c r="X387" s="180" t="s">
-        <v>1126</v>
-      </c>
+      <c r="W387" s="180"/>
+      <c r="X387" s="180"/>
       <c r="Y387" s="178" t="s">
         <v>945</v>
       </c>
@@ -52165,18 +51950,10 @@
       <c r="AM387" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN387" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO387" s="175" t="s">
-        <v>2225</v>
-      </c>
-      <c r="AP387" s="175" t="s">
-        <v>2226</v>
-      </c>
-      <c r="AQ387" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN387" s="175"/>
+      <c r="AO387" s="175"/>
+      <c r="AP387" s="175"/>
+      <c r="AQ387" s="175"/>
     </row>
     <row r="388" spans="1:43">
       <c r="A388" s="173" t="s">
@@ -52189,11 +51966,11 @@
         <v>880</v>
       </c>
       <c r="D388" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E388" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F388" s="174" t="s">
         <v>13</v>
@@ -52229,29 +52006,21 @@
         <v>1003</v>
       </c>
       <c r="Q388" s="174" t="s">
-        <v>994</v>
+        <v>2240</v>
       </c>
       <c r="R388" s="174" t="s">
-        <v>994</v>
+        <v>2240</v>
       </c>
       <c r="S388" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T388" s="180" t="s">
-        <v>2193</v>
-      </c>
-      <c r="U388" s="180" t="s">
-        <v>1230</v>
-      </c>
+      <c r="T388" s="180"/>
+      <c r="U388" s="180"/>
       <c r="V388" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W388" s="180" t="s">
-        <v>1699</v>
-      </c>
-      <c r="X388" s="180" t="s">
-        <v>1086</v>
-      </c>
+      <c r="W388" s="180"/>
+      <c r="X388" s="180"/>
       <c r="Y388" s="178" t="s">
         <v>945</v>
       </c>
@@ -52297,18 +52066,10 @@
       <c r="AM388" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN388" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO388" s="175" t="s">
-        <v>2227</v>
-      </c>
-      <c r="AP388" s="175" t="s">
-        <v>2228</v>
-      </c>
-      <c r="AQ388" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN388" s="175"/>
+      <c r="AO388" s="175"/>
+      <c r="AP388" s="175"/>
+      <c r="AQ388" s="175"/>
     </row>
     <row r="389" spans="1:43">
       <c r="A389" s="173" t="s">
@@ -52321,11 +52082,11 @@
         <v>880</v>
       </c>
       <c r="D389" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E389" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F389" s="174" t="s">
         <v>13</v>
@@ -52361,29 +52122,21 @@
         <v>1003</v>
       </c>
       <c r="Q389" s="174" t="s">
-        <v>995</v>
+        <v>2241</v>
       </c>
       <c r="R389" s="174" t="s">
-        <v>995</v>
+        <v>2241</v>
       </c>
       <c r="S389" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T389" s="180" t="s">
-        <v>1376</v>
-      </c>
-      <c r="U389" s="180" t="s">
-        <v>1199</v>
-      </c>
+      <c r="T389" s="180"/>
+      <c r="U389" s="180"/>
       <c r="V389" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W389" s="180" t="s">
-        <v>1081</v>
-      </c>
-      <c r="X389" s="180" t="s">
-        <v>1826</v>
-      </c>
+      <c r="W389" s="180"/>
+      <c r="X389" s="180"/>
       <c r="Y389" s="178" t="s">
         <v>945</v>
       </c>
@@ -52429,18 +52182,10 @@
       <c r="AM389" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN389" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO389" s="175" t="s">
-        <v>2229</v>
-      </c>
-      <c r="AP389" s="175" t="s">
-        <v>2230</v>
-      </c>
-      <c r="AQ389" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN389" s="175"/>
+      <c r="AO389" s="175"/>
+      <c r="AP389" s="175"/>
+      <c r="AQ389" s="175"/>
     </row>
     <row r="390" spans="1:43">
       <c r="A390" s="173" t="s">
@@ -52453,11 +52198,11 @@
         <v>880</v>
       </c>
       <c r="D390" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E390" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F390" s="174" t="s">
         <v>13</v>
@@ -52493,29 +52238,21 @@
         <v>1003</v>
       </c>
       <c r="Q390" s="174" t="s">
-        <v>996</v>
+        <v>2242</v>
       </c>
       <c r="R390" s="174" t="s">
-        <v>996</v>
+        <v>2242</v>
       </c>
       <c r="S390" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T390" s="180" t="s">
-        <v>2231</v>
-      </c>
-      <c r="U390" s="180" t="s">
-        <v>1369</v>
-      </c>
+      <c r="T390" s="180"/>
+      <c r="U390" s="180"/>
       <c r="V390" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W390" s="180" t="s">
-        <v>1733</v>
-      </c>
-      <c r="X390" s="180" t="s">
-        <v>1064</v>
-      </c>
+      <c r="W390" s="180"/>
+      <c r="X390" s="180"/>
       <c r="Y390" s="178" t="s">
         <v>945</v>
       </c>
@@ -52561,18 +52298,10 @@
       <c r="AM390" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN390" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO390" s="175" t="s">
-        <v>2232</v>
-      </c>
-      <c r="AP390" s="175" t="s">
-        <v>2233</v>
-      </c>
-      <c r="AQ390" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN390" s="175"/>
+      <c r="AO390" s="175"/>
+      <c r="AP390" s="175"/>
+      <c r="AQ390" s="175"/>
     </row>
     <row r="391" spans="1:43">
       <c r="A391" s="173" t="s">
@@ -52585,11 +52314,11 @@
         <v>880</v>
       </c>
       <c r="D391" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E391" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F391" s="174" t="s">
         <v>13</v>
@@ -52625,29 +52354,21 @@
         <v>1003</v>
       </c>
       <c r="Q391" s="174" t="s">
-        <v>997</v>
+        <v>2243</v>
       </c>
       <c r="R391" s="174" t="s">
-        <v>997</v>
+        <v>2243</v>
       </c>
       <c r="S391" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T391" s="180" t="s">
-        <v>2234</v>
-      </c>
-      <c r="U391" s="180" t="s">
-        <v>1088</v>
-      </c>
+      <c r="T391" s="180"/>
+      <c r="U391" s="180"/>
       <c r="V391" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W391" s="180" t="s">
-        <v>2154</v>
-      </c>
-      <c r="X391" s="180" t="s">
-        <v>1151</v>
-      </c>
+      <c r="W391" s="180"/>
+      <c r="X391" s="180"/>
       <c r="Y391" s="178" t="s">
         <v>945</v>
       </c>
@@ -52693,18 +52414,10 @@
       <c r="AM391" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN391" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO391" s="175" t="s">
-        <v>2235</v>
-      </c>
-      <c r="AP391" s="175" t="s">
-        <v>2236</v>
-      </c>
-      <c r="AQ391" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN391" s="175"/>
+      <c r="AO391" s="175"/>
+      <c r="AP391" s="175"/>
+      <c r="AQ391" s="175"/>
     </row>
     <row r="392" spans="1:43">
       <c r="A392" s="173" t="s">
@@ -52717,11 +52430,11 @@
         <v>880</v>
       </c>
       <c r="D392" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E392" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F392" s="174" t="s">
         <v>13</v>
@@ -52757,29 +52470,21 @@
         <v>1003</v>
       </c>
       <c r="Q392" s="174" t="s">
-        <v>998</v>
+        <v>2261</v>
       </c>
       <c r="R392" s="174" t="s">
-        <v>998</v>
+        <v>2261</v>
       </c>
       <c r="S392" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T392" s="180" t="s">
-        <v>1158</v>
-      </c>
-      <c r="U392" s="180" t="s">
-        <v>1261</v>
-      </c>
+      <c r="T392" s="180"/>
+      <c r="U392" s="180"/>
       <c r="V392" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W392" s="180" t="s">
-        <v>1229</v>
-      </c>
-      <c r="X392" s="180" t="s">
-        <v>1086</v>
-      </c>
+      <c r="W392" s="180"/>
+      <c r="X392" s="180"/>
       <c r="Y392" s="178" t="s">
         <v>945</v>
       </c>
@@ -52825,18 +52530,10 @@
       <c r="AM392" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN392" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO392" s="175" t="s">
-        <v>2237</v>
-      </c>
-      <c r="AP392" s="175" t="s">
-        <v>2238</v>
-      </c>
-      <c r="AQ392" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN392" s="175"/>
+      <c r="AO392" s="175"/>
+      <c r="AP392" s="175"/>
+      <c r="AQ392" s="175"/>
     </row>
     <row r="393" spans="1:43">
       <c r="A393" s="173" t="s">
@@ -52849,11 +52546,11 @@
         <v>880</v>
       </c>
       <c r="D393" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E393" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F393" s="174" t="s">
         <v>13</v>
@@ -52889,29 +52586,21 @@
         <v>1003</v>
       </c>
       <c r="Q393" s="174" t="s">
-        <v>999</v>
+        <v>2262</v>
       </c>
       <c r="R393" s="174" t="s">
-        <v>999</v>
+        <v>2262</v>
       </c>
       <c r="S393" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T393" s="180" t="s">
-        <v>1502</v>
-      </c>
-      <c r="U393" s="180" t="s">
-        <v>1151</v>
-      </c>
+      <c r="T393" s="180"/>
+      <c r="U393" s="180"/>
       <c r="V393" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W393" s="180" t="s">
-        <v>2239</v>
-      </c>
-      <c r="X393" s="180" t="s">
-        <v>1572</v>
-      </c>
+      <c r="W393" s="180"/>
+      <c r="X393" s="180"/>
       <c r="Y393" s="178" t="s">
         <v>945</v>
       </c>
@@ -52957,18 +52646,10 @@
       <c r="AM393" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN393" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO393" s="175" t="s">
-        <v>2240</v>
-      </c>
-      <c r="AP393" s="175" t="s">
-        <v>2241</v>
-      </c>
-      <c r="AQ393" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN393" s="175"/>
+      <c r="AO393" s="175"/>
+      <c r="AP393" s="175"/>
+      <c r="AQ393" s="175"/>
     </row>
     <row r="394" spans="1:43">
       <c r="A394" s="173" t="s">
@@ -52981,11 +52662,11 @@
         <v>880</v>
       </c>
       <c r="D394" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E394" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F394" s="174" t="s">
         <v>13</v>
@@ -53021,29 +52702,21 @@
         <v>1003</v>
       </c>
       <c r="Q394" s="174" t="s">
-        <v>1000</v>
+        <v>2263</v>
       </c>
       <c r="R394" s="174" t="s">
-        <v>1000</v>
+        <v>2263</v>
       </c>
       <c r="S394" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T394" s="180" t="s">
-        <v>2242</v>
-      </c>
-      <c r="U394" s="180" t="s">
-        <v>1136</v>
-      </c>
+      <c r="T394" s="180"/>
+      <c r="U394" s="180"/>
       <c r="V394" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W394" s="180" t="s">
-        <v>1597</v>
-      </c>
-      <c r="X394" s="180" t="s">
-        <v>1527</v>
-      </c>
+      <c r="W394" s="180"/>
+      <c r="X394" s="180"/>
       <c r="Y394" s="178" t="s">
         <v>945</v>
       </c>
@@ -53089,18 +52762,10 @@
       <c r="AM394" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN394" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO394" s="175" t="s">
-        <v>2243</v>
-      </c>
-      <c r="AP394" s="175" t="s">
-        <v>2244</v>
-      </c>
-      <c r="AQ394" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN394" s="175"/>
+      <c r="AO394" s="175"/>
+      <c r="AP394" s="175"/>
+      <c r="AQ394" s="175"/>
     </row>
     <row r="395" spans="1:43">
       <c r="A395" s="173" t="s">
@@ -53113,11 +52778,11 @@
         <v>880</v>
       </c>
       <c r="D395" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E395" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F395" s="174" t="s">
         <v>13</v>
@@ -53153,29 +52818,21 @@
         <v>1003</v>
       </c>
       <c r="Q395" s="174" t="s">
-        <v>1001</v>
+        <v>2264</v>
       </c>
       <c r="R395" s="174" t="s">
-        <v>1001</v>
+        <v>2264</v>
       </c>
       <c r="S395" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T395" s="180" t="s">
-        <v>2245</v>
-      </c>
-      <c r="U395" s="180" t="s">
-        <v>1598</v>
-      </c>
+      <c r="T395" s="180"/>
+      <c r="U395" s="180"/>
       <c r="V395" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W395" s="180" t="s">
-        <v>2246</v>
-      </c>
-      <c r="X395" s="180" t="s">
-        <v>1093</v>
-      </c>
+      <c r="W395" s="180"/>
+      <c r="X395" s="180"/>
       <c r="Y395" s="178" t="s">
         <v>945</v>
       </c>
@@ -53221,18 +52878,10 @@
       <c r="AM395" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN395" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO395" s="175" t="s">
-        <v>2247</v>
-      </c>
-      <c r="AP395" s="175" t="s">
-        <v>2248</v>
-      </c>
-      <c r="AQ395" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN395" s="175"/>
+      <c r="AO395" s="175"/>
+      <c r="AP395" s="175"/>
+      <c r="AQ395" s="175"/>
     </row>
     <row r="396" spans="1:43">
       <c r="A396" s="173" t="s">
@@ -53245,11 +52894,11 @@
         <v>880</v>
       </c>
       <c r="D396" s="174" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E396" s="173" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiProd</v>
+        <v>CAS_SarathiCOV</v>
       </c>
       <c r="F396" s="174" t="s">
         <v>13</v>
@@ -53285,29 +52934,21 @@
         <v>1003</v>
       </c>
       <c r="Q396" s="174" t="s">
-        <v>1712</v>
+        <v>2265</v>
       </c>
       <c r="R396" s="174" t="s">
-        <v>1712</v>
+        <v>2265</v>
       </c>
       <c r="S396" s="177" t="s">
         <v>952</v>
       </c>
-      <c r="T396" s="180" t="s">
-        <v>1142</v>
-      </c>
-      <c r="U396" s="180" t="s">
-        <v>1278</v>
-      </c>
+      <c r="T396" s="180"/>
+      <c r="U396" s="180"/>
       <c r="V396" s="178" t="s">
         <v>944</v>
       </c>
-      <c r="W396" s="180" t="s">
-        <v>2249</v>
-      </c>
-      <c r="X396" s="180" t="s">
-        <v>1366</v>
-      </c>
+      <c r="W396" s="180"/>
+      <c r="X396" s="180"/>
       <c r="Y396" s="178" t="s">
         <v>945</v>
       </c>
@@ -53353,18 +52994,10 @@
       <c r="AM396" s="175" t="s">
         <v>865</v>
       </c>
-      <c r="AN396" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO396" s="175" t="s">
-        <v>2250</v>
-      </c>
-      <c r="AP396" s="175" t="s">
-        <v>2251</v>
-      </c>
-      <c r="AQ396" s="175" t="s">
-        <v>923</v>
-      </c>
+      <c r="AN396" s="175"/>
+      <c r="AO396" s="175"/>
+      <c r="AP396" s="175"/>
+      <c r="AQ396" s="175"/>
     </row>
     <row r="397" spans="1:43" s="153" customFormat="1">
       <c r="A397" s="153" t="s">
@@ -53489,10 +53122,10 @@
         <v>972</v>
       </c>
       <c r="AO397" s="2" t="s">
-        <v>2260</v>
+        <v>2128</v>
       </c>
       <c r="AP397" s="2" t="s">
-        <v>2261</v>
+        <v>2129</v>
       </c>
       <c r="AQ397" s="2" t="s">
         <v>923</v>
@@ -53621,10 +53254,10 @@
         <v>972</v>
       </c>
       <c r="AO398" s="2" t="s">
-        <v>2262</v>
+        <v>2130</v>
       </c>
       <c r="AP398" s="2" t="s">
-        <v>2263</v>
+        <v>2131</v>
       </c>
       <c r="AQ398" s="2" t="s">
         <v>923</v>
@@ -53699,7 +53332,7 @@
         <v>944</v>
       </c>
       <c r="W399" s="76" t="s">
-        <v>2264</v>
+        <v>2132</v>
       </c>
       <c r="X399" s="76" t="s">
         <v>1654</v>
@@ -53822,7 +53455,7 @@
         <v>952</v>
       </c>
       <c r="T400" s="76" t="s">
-        <v>2163</v>
+        <v>2090</v>
       </c>
       <c r="U400" s="76" t="s">
         <v>1583</v>
@@ -53831,7 +53464,7 @@
         <v>944</v>
       </c>
       <c r="W400" s="76" t="s">
-        <v>2183</v>
+        <v>2097</v>
       </c>
       <c r="X400" s="76" t="s">
         <v>1188</v>
@@ -53924,7 +53557,7 @@
         <v>865</v>
       </c>
       <c r="J401" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K401" s="167" t="s">
         <v>1384</v>
@@ -53954,7 +53587,7 @@
         <v>952</v>
       </c>
       <c r="T401" s="67" t="s">
-        <v>2282</v>
+        <v>2150</v>
       </c>
       <c r="U401" s="76" t="s">
         <v>1151</v>
@@ -53963,7 +53596,7 @@
         <v>944</v>
       </c>
       <c r="W401" s="76" t="s">
-        <v>2283</v>
+        <v>2151</v>
       </c>
       <c r="X401" s="67" t="s">
         <v>1164</v>
@@ -53978,7 +53611,7 @@
         <v>947</v>
       </c>
       <c r="AB401" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC401" s="68" t="s">
         <v>948</v>
@@ -54017,10 +53650,10 @@
         <v>972</v>
       </c>
       <c r="AO401" t="s">
-        <v>2284</v>
+        <v>2152</v>
       </c>
       <c r="AP401" s="67" t="s">
-        <v>2285</v>
+        <v>2153</v>
       </c>
       <c r="AQ401" t="s">
         <v>865</v>
@@ -54056,7 +53689,7 @@
         <v>865</v>
       </c>
       <c r="J402" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K402" s="167" t="s">
         <v>1384</v>
@@ -54110,7 +53743,7 @@
         <v>947</v>
       </c>
       <c r="AB402" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC402" s="68" t="s">
         <v>948</v>
@@ -54149,10 +53782,10 @@
         <v>972</v>
       </c>
       <c r="AO402" t="s">
-        <v>2286</v>
+        <v>2154</v>
       </c>
       <c r="AP402" s="67" t="s">
-        <v>2287</v>
+        <v>2155</v>
       </c>
       <c r="AQ402" t="s">
         <v>865</v>
@@ -54188,7 +53821,7 @@
         <v>865</v>
       </c>
       <c r="J403" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K403" s="167" t="s">
         <v>1384</v>
@@ -54242,7 +53875,7 @@
         <v>947</v>
       </c>
       <c r="AB403" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC403" s="68" t="s">
         <v>948</v>
@@ -54281,10 +53914,10 @@
         <v>972</v>
       </c>
       <c r="AO403" t="s">
-        <v>2288</v>
+        <v>2156</v>
       </c>
       <c r="AP403" s="67" t="s">
-        <v>2289</v>
+        <v>2157</v>
       </c>
       <c r="AQ403" t="s">
         <v>865</v>
@@ -54320,7 +53953,7 @@
         <v>865</v>
       </c>
       <c r="J404" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K404" s="167" t="s">
         <v>1384</v>
@@ -54350,7 +53983,7 @@
         <v>952</v>
       </c>
       <c r="T404" s="67" t="s">
-        <v>2290</v>
+        <v>2158</v>
       </c>
       <c r="U404" s="76" t="s">
         <v>1734</v>
@@ -54359,7 +53992,7 @@
         <v>944</v>
       </c>
       <c r="W404" s="76" t="s">
-        <v>2291</v>
+        <v>2159</v>
       </c>
       <c r="X404" s="67" t="s">
         <v>1399</v>
@@ -54374,7 +54007,7 @@
         <v>947</v>
       </c>
       <c r="AB404" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC404" s="68" t="s">
         <v>948</v>
@@ -54413,10 +54046,10 @@
         <v>972</v>
       </c>
       <c r="AO404" t="s">
-        <v>2292</v>
+        <v>2160</v>
       </c>
       <c r="AP404" s="67" t="s">
-        <v>2293</v>
+        <v>2161</v>
       </c>
       <c r="AQ404" t="s">
         <v>865</v>
@@ -54452,7 +54085,7 @@
         <v>865</v>
       </c>
       <c r="J405" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K405" s="167" t="s">
         <v>1384</v>
@@ -54506,7 +54139,7 @@
         <v>947</v>
       </c>
       <c r="AB405" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC405" s="68" t="s">
         <v>948</v>
@@ -54545,10 +54178,10 @@
         <v>972</v>
       </c>
       <c r="AO405" t="s">
-        <v>2294</v>
+        <v>2162</v>
       </c>
       <c r="AP405" s="67" t="s">
-        <v>2295</v>
+        <v>2163</v>
       </c>
       <c r="AQ405" t="s">
         <v>865</v>
@@ -54584,7 +54217,7 @@
         <v>865</v>
       </c>
       <c r="J406" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K406" s="167" t="s">
         <v>1384</v>
@@ -54605,10 +54238,10 @@
         <v>943</v>
       </c>
       <c r="Q406" s="72" t="s">
-        <v>2276</v>
+        <v>2144</v>
       </c>
       <c r="R406" s="72" t="s">
-        <v>2276</v>
+        <v>2144</v>
       </c>
       <c r="S406" s="71" t="s">
         <v>952</v>
@@ -54623,7 +54256,7 @@
         <v>944</v>
       </c>
       <c r="W406" s="76" t="s">
-        <v>2296</v>
+        <v>2164</v>
       </c>
       <c r="X406" s="67" t="s">
         <v>1226</v>
@@ -54638,7 +54271,7 @@
         <v>947</v>
       </c>
       <c r="AB406" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC406" s="68" t="s">
         <v>948</v>
@@ -54677,10 +54310,10 @@
         <v>972</v>
       </c>
       <c r="AO406" t="s">
-        <v>2297</v>
+        <v>2165</v>
       </c>
       <c r="AP406" s="67" t="s">
-        <v>2298</v>
+        <v>2166</v>
       </c>
       <c r="AQ406" t="s">
         <v>865</v>
@@ -54716,7 +54349,7 @@
         <v>865</v>
       </c>
       <c r="J407" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K407" s="167" t="s">
         <v>1384</v>
@@ -54737,10 +54370,10 @@
         <v>943</v>
       </c>
       <c r="Q407" s="72" t="s">
-        <v>2277</v>
+        <v>2145</v>
       </c>
       <c r="R407" s="72" t="s">
-        <v>2277</v>
+        <v>2145</v>
       </c>
       <c r="S407" s="71" t="s">
         <v>952</v>
@@ -54755,7 +54388,7 @@
         <v>944</v>
       </c>
       <c r="W407" s="76" t="s">
-        <v>2160</v>
+        <v>2088</v>
       </c>
       <c r="X407" s="67" t="s">
         <v>1572</v>
@@ -54770,7 +54403,7 @@
         <v>947</v>
       </c>
       <c r="AB407" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC407" s="68" t="s">
         <v>948</v>
@@ -54809,10 +54442,10 @@
         <v>972</v>
       </c>
       <c r="AO407" t="s">
-        <v>2299</v>
+        <v>2167</v>
       </c>
       <c r="AP407" s="67" t="s">
-        <v>2300</v>
+        <v>2168</v>
       </c>
       <c r="AQ407" t="s">
         <v>865</v>
@@ -54848,7 +54481,7 @@
         <v>865</v>
       </c>
       <c r="J408" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K408" s="167" t="s">
         <v>1384</v>
@@ -54869,16 +54502,16 @@
         <v>943</v>
       </c>
       <c r="Q408" s="72" t="s">
-        <v>2278</v>
+        <v>2146</v>
       </c>
       <c r="R408" s="72" t="s">
-        <v>2278</v>
+        <v>2146</v>
       </c>
       <c r="S408" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T408" s="67" t="s">
-        <v>2301</v>
+        <v>2169</v>
       </c>
       <c r="U408" s="76" t="s">
         <v>1068</v>
@@ -54887,7 +54520,7 @@
         <v>944</v>
       </c>
       <c r="W408" s="76" t="s">
-        <v>2302</v>
+        <v>2170</v>
       </c>
       <c r="X408" s="67" t="s">
         <v>1173</v>
@@ -54902,7 +54535,7 @@
         <v>947</v>
       </c>
       <c r="AB408" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC408" s="68" t="s">
         <v>948</v>
@@ -54941,10 +54574,10 @@
         <v>972</v>
       </c>
       <c r="AO408" t="s">
-        <v>2303</v>
+        <v>2171</v>
       </c>
       <c r="AP408" s="67" t="s">
-        <v>2304</v>
+        <v>2172</v>
       </c>
       <c r="AQ408" t="s">
         <v>865</v>
@@ -54980,7 +54613,7 @@
         <v>865</v>
       </c>
       <c r="J409" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K409" s="167" t="s">
         <v>1384</v>
@@ -55001,10 +54634,10 @@
         <v>943</v>
       </c>
       <c r="Q409" s="72" t="s">
-        <v>2279</v>
+        <v>2147</v>
       </c>
       <c r="R409" s="72" t="s">
-        <v>2279</v>
+        <v>2147</v>
       </c>
       <c r="S409" s="71" t="s">
         <v>952</v>
@@ -55034,7 +54667,7 @@
         <v>947</v>
       </c>
       <c r="AB409" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC409" s="68" t="s">
         <v>948</v>
@@ -55073,10 +54706,10 @@
         <v>972</v>
       </c>
       <c r="AO409" t="s">
-        <v>2305</v>
+        <v>2173</v>
       </c>
       <c r="AP409" s="67" t="s">
-        <v>2306</v>
+        <v>2174</v>
       </c>
       <c r="AQ409" t="s">
         <v>865</v>
@@ -55112,7 +54745,7 @@
         <v>865</v>
       </c>
       <c r="J410" s="167" t="s">
-        <v>2281</v>
+        <v>2149</v>
       </c>
       <c r="K410" s="167" t="s">
         <v>1384</v>
@@ -55133,16 +54766,16 @@
         <v>943</v>
       </c>
       <c r="Q410" s="72" t="s">
-        <v>2280</v>
+        <v>2148</v>
       </c>
       <c r="R410" s="72" t="s">
-        <v>2280</v>
+        <v>2148</v>
       </c>
       <c r="S410" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T410" s="67" t="s">
-        <v>2307</v>
+        <v>2175</v>
       </c>
       <c r="U410" s="76" t="s">
         <v>1190</v>
@@ -55151,7 +54784,7 @@
         <v>944</v>
       </c>
       <c r="W410" s="76" t="s">
-        <v>2308</v>
+        <v>2176</v>
       </c>
       <c r="X410" s="67" t="s">
         <v>1124</v>
@@ -55166,7 +54799,7 @@
         <v>947</v>
       </c>
       <c r="AB410" s="74" t="s">
-        <v>2275</v>
+        <v>2143</v>
       </c>
       <c r="AC410" s="68" t="s">
         <v>948</v>
@@ -55205,10 +54838,10 @@
         <v>972</v>
       </c>
       <c r="AO410" t="s">
-        <v>2309</v>
+        <v>2177</v>
       </c>
       <c r="AP410" s="67" t="s">
-        <v>2310</v>
+        <v>2178</v>
       </c>
       <c r="AQ410" t="s">
         <v>865</v>
@@ -55265,10 +54898,10 @@
         <v>943</v>
       </c>
       <c r="Q411" s="72" t="s">
-        <v>2371</v>
+        <v>2239</v>
       </c>
       <c r="R411" s="72" t="s">
-        <v>2371</v>
+        <v>2239</v>
       </c>
       <c r="S411" s="71" t="s">
         <v>952</v>
@@ -55283,7 +54916,7 @@
         <v>944</v>
       </c>
       <c r="W411" s="184" t="s">
-        <v>2376</v>
+        <v>2244</v>
       </c>
       <c r="X411" s="67" t="s">
         <v>1169</v>
@@ -55337,10 +54970,10 @@
         <v>972</v>
       </c>
       <c r="AO411" t="s">
-        <v>2377</v>
+        <v>2245</v>
       </c>
       <c r="AP411" s="67" t="s">
-        <v>2378</v>
+        <v>2246</v>
       </c>
       <c r="AQ411" s="153" t="s">
         <v>865</v>
@@ -55397,16 +55030,16 @@
         <v>943</v>
       </c>
       <c r="Q412" s="72" t="s">
-        <v>2372</v>
+        <v>2240</v>
       </c>
       <c r="R412" s="72" t="s">
-        <v>2372</v>
+        <v>2240</v>
       </c>
       <c r="S412" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T412" s="67" t="s">
-        <v>2379</v>
+        <v>2247</v>
       </c>
       <c r="U412" s="184" t="s">
         <v>1130</v>
@@ -55469,10 +55102,10 @@
         <v>972</v>
       </c>
       <c r="AO412" t="s">
-        <v>2380</v>
+        <v>2248</v>
       </c>
       <c r="AP412" s="67" t="s">
-        <v>2381</v>
+        <v>2249</v>
       </c>
       <c r="AQ412" s="153" t="s">
         <v>865</v>
@@ -55529,10 +55162,10 @@
         <v>943</v>
       </c>
       <c r="Q413" s="72" t="s">
-        <v>2373</v>
+        <v>2241</v>
       </c>
       <c r="R413" s="72" t="s">
-        <v>2373</v>
+        <v>2241</v>
       </c>
       <c r="S413" s="71" t="s">
         <v>952</v>
@@ -55547,7 +55180,7 @@
         <v>944</v>
       </c>
       <c r="W413" s="184" t="s">
-        <v>2382</v>
+        <v>2250</v>
       </c>
       <c r="X413" s="67" t="s">
         <v>1151</v>
@@ -55601,10 +55234,10 @@
         <v>972</v>
       </c>
       <c r="AO413" t="s">
-        <v>2383</v>
+        <v>2251</v>
       </c>
       <c r="AP413" s="67" t="s">
-        <v>2384</v>
+        <v>2252</v>
       </c>
       <c r="AQ413" s="153" t="s">
         <v>865</v>
@@ -55661,16 +55294,16 @@
         <v>943</v>
       </c>
       <c r="Q414" s="72" t="s">
-        <v>2374</v>
+        <v>2242</v>
       </c>
       <c r="R414" s="72" t="s">
-        <v>2374</v>
+        <v>2242</v>
       </c>
       <c r="S414" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T414" s="67" t="s">
-        <v>2385</v>
+        <v>2253</v>
       </c>
       <c r="U414" s="184" t="s">
         <v>1399</v>
@@ -55679,7 +55312,7 @@
         <v>944</v>
       </c>
       <c r="W414" s="184" t="s">
-        <v>2386</v>
+        <v>2254</v>
       </c>
       <c r="X414" s="67" t="s">
         <v>1282</v>
@@ -55733,10 +55366,10 @@
         <v>972</v>
       </c>
       <c r="AO414" t="s">
-        <v>2387</v>
+        <v>2255</v>
       </c>
       <c r="AP414" s="67" t="s">
-        <v>2388</v>
+        <v>2256</v>
       </c>
       <c r="AQ414" s="153" t="s">
         <v>865</v>
@@ -55793,16 +55426,16 @@
         <v>943</v>
       </c>
       <c r="Q415" s="72" t="s">
-        <v>2375</v>
+        <v>2243</v>
       </c>
       <c r="R415" s="72" t="s">
-        <v>2375</v>
+        <v>2243</v>
       </c>
       <c r="S415" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T415" s="67" t="s">
-        <v>2389</v>
+        <v>2257</v>
       </c>
       <c r="U415" s="184" t="s">
         <v>1141</v>
@@ -55811,7 +55444,7 @@
         <v>944</v>
       </c>
       <c r="W415" s="184" t="s">
-        <v>2390</v>
+        <v>2258</v>
       </c>
       <c r="X415" s="67" t="s">
         <v>1146</v>
@@ -55865,10 +55498,10 @@
         <v>972</v>
       </c>
       <c r="AO415" t="s">
-        <v>2391</v>
+        <v>2259</v>
       </c>
       <c r="AP415" s="67" t="s">
-        <v>2392</v>
+        <v>2260</v>
       </c>
       <c r="AQ415" s="153" t="s">
         <v>865</v>
@@ -55925,10 +55558,10 @@
         <v>943</v>
       </c>
       <c r="Q416" s="72" t="s">
-        <v>2372</v>
+        <v>2240</v>
       </c>
       <c r="R416" s="72" t="s">
-        <v>2372</v>
+        <v>2240</v>
       </c>
       <c r="S416" s="71" t="s">
         <v>952</v>
@@ -55958,7 +55591,7 @@
         <v>947</v>
       </c>
       <c r="AB416" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC416" s="68" t="s">
         <v>948</v>
@@ -55997,10 +55630,10 @@
         <v>972</v>
       </c>
       <c r="AO416" t="s">
-        <v>2408</v>
+        <v>2276</v>
       </c>
       <c r="AP416" s="67" t="s">
-        <v>2409</v>
+        <v>2277</v>
       </c>
       <c r="AQ416" t="s">
         <v>923</v>
@@ -56057,16 +55690,16 @@
         <v>943</v>
       </c>
       <c r="Q417" s="72" t="s">
-        <v>2373</v>
+        <v>2241</v>
       </c>
       <c r="R417" s="72" t="s">
-        <v>2373</v>
+        <v>2241</v>
       </c>
       <c r="S417" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T417" s="67" t="s">
-        <v>2410</v>
+        <v>2278</v>
       </c>
       <c r="U417" s="184" t="s">
         <v>1212</v>
@@ -56075,7 +55708,7 @@
         <v>944</v>
       </c>
       <c r="W417" s="184" t="s">
-        <v>2123</v>
+        <v>2073</v>
       </c>
       <c r="X417" s="67" t="s">
         <v>1137</v>
@@ -56090,7 +55723,7 @@
         <v>947</v>
       </c>
       <c r="AB417" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC417" s="68" t="s">
         <v>948</v>
@@ -56125,14 +55758,14 @@
       <c r="AM417" s="75" t="s">
         <v>865</v>
       </c>
-      <c r="AN417" s="75" t="s">
+      <c r="AN417" s="163" t="s">
         <v>972</v>
       </c>
       <c r="AO417" t="s">
-        <v>2411</v>
-      </c>
-      <c r="AP417" s="67" t="s">
-        <v>2412</v>
+        <v>2279</v>
+      </c>
+      <c r="AP417" s="147" t="s">
+        <v>2280</v>
       </c>
       <c r="AQ417" t="s">
         <v>923</v>
@@ -56142,24 +55775,24 @@
       <c r="A418" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B418" s="186" t="s">
-        <v>1</v>
+      <c r="B418" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C418" s="48" t="s">
         <v>880</v>
       </c>
       <c r="D418" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E418" s="153" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiCOV</v>
+        <v>CAS_SarathiProd</v>
       </c>
       <c r="F418" s="48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G418" s="48" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="H418" s="52" t="s">
         <v>865</v>
@@ -56168,7 +55801,7 @@
         <v>865</v>
       </c>
       <c r="J418" s="190" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="K418" s="190" t="s">
         <v>869</v>
@@ -56189,28 +55822,28 @@
         <v>943</v>
       </c>
       <c r="Q418" s="72" t="s">
-        <v>2374</v>
+        <v>2242</v>
       </c>
       <c r="R418" s="72" t="s">
-        <v>2374</v>
+        <v>2242</v>
       </c>
       <c r="S418" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T418" s="67" t="s">
-        <v>1508</v>
+        <v>1933</v>
       </c>
       <c r="U418" s="184" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
       <c r="V418" s="68" t="s">
         <v>944</v>
       </c>
       <c r="W418" s="184" t="s">
-        <v>1161</v>
+        <v>1962</v>
       </c>
       <c r="X418" s="67" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="Y418" s="68" t="s">
         <v>945</v>
@@ -56222,7 +55855,7 @@
         <v>947</v>
       </c>
       <c r="AB418" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC418" s="68" t="s">
         <v>948</v>
@@ -56260,11 +55893,11 @@
       <c r="AN418" s="75" t="s">
         <v>972</v>
       </c>
-      <c r="AO418" t="s">
-        <v>2413</v>
+      <c r="AO418" s="184" t="s">
+        <v>2308</v>
       </c>
       <c r="AP418" s="67" t="s">
-        <v>2414</v>
+        <v>2309</v>
       </c>
       <c r="AQ418" t="s">
         <v>923</v>
@@ -56274,24 +55907,24 @@
       <c r="A419" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B419" s="186" t="s">
-        <v>962</v>
+      <c r="B419" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C419" s="48" t="s">
         <v>880</v>
       </c>
       <c r="D419" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E419" s="153" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiCOV</v>
+        <v>CAS_SarathiProd</v>
       </c>
       <c r="F419" s="48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G419" s="48" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="H419" s="52" t="s">
         <v>865</v>
@@ -56300,7 +55933,7 @@
         <v>865</v>
       </c>
       <c r="J419" s="190" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="K419" s="190" t="s">
         <v>869</v>
@@ -56321,28 +55954,28 @@
         <v>943</v>
       </c>
       <c r="Q419" s="72" t="s">
-        <v>2375</v>
+        <v>2243</v>
       </c>
       <c r="R419" s="72" t="s">
-        <v>2375</v>
+        <v>2243</v>
       </c>
       <c r="S419" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T419" s="67" t="s">
-        <v>2415</v>
+        <v>2119</v>
       </c>
       <c r="U419" s="184" t="s">
-        <v>1173</v>
+        <v>1282</v>
       </c>
       <c r="V419" s="68" t="s">
         <v>944</v>
       </c>
       <c r="W419" s="184" t="s">
-        <v>1346</v>
+        <v>1498</v>
       </c>
       <c r="X419" s="67" t="s">
-        <v>1199</v>
+        <v>1062</v>
       </c>
       <c r="Y419" s="68" t="s">
         <v>945</v>
@@ -56354,7 +55987,7 @@
         <v>947</v>
       </c>
       <c r="AB419" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC419" s="68" t="s">
         <v>948</v>
@@ -56392,11 +56025,11 @@
       <c r="AN419" s="75" t="s">
         <v>972</v>
       </c>
-      <c r="AO419" t="s">
-        <v>2416</v>
+      <c r="AO419" s="184" t="s">
+        <v>2310</v>
       </c>
       <c r="AP419" s="67" t="s">
-        <v>2417</v>
+        <v>2311</v>
       </c>
       <c r="AQ419" t="s">
         <v>923</v>
@@ -56406,24 +56039,24 @@
       <c r="A420" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B420" s="186" t="s">
-        <v>963</v>
+      <c r="B420" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C420" s="48" t="s">
         <v>880</v>
       </c>
       <c r="D420" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E420" s="153" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiCOV</v>
+        <v>CAS_SarathiProd</v>
       </c>
       <c r="F420" s="48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G420" s="48" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="H420" s="52" t="s">
         <v>865</v>
@@ -56432,7 +56065,7 @@
         <v>865</v>
       </c>
       <c r="J420" s="190" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="K420" s="190" t="s">
         <v>869</v>
@@ -56453,28 +56086,28 @@
         <v>943</v>
       </c>
       <c r="Q420" s="72" t="s">
-        <v>2393</v>
+        <v>2261</v>
       </c>
       <c r="R420" s="72" t="s">
-        <v>2393</v>
+        <v>2261</v>
       </c>
       <c r="S420" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T420" s="67" t="s">
-        <v>2418</v>
+        <v>2064</v>
       </c>
       <c r="U420" s="184" t="s">
-        <v>1226</v>
+        <v>1064</v>
       </c>
       <c r="V420" s="68" t="s">
         <v>944</v>
       </c>
       <c r="W420" s="184" t="s">
-        <v>2419</v>
+        <v>1407</v>
       </c>
       <c r="X420" s="67" t="s">
-        <v>1230</v>
+        <v>1105</v>
       </c>
       <c r="Y420" s="68" t="s">
         <v>945</v>
@@ -56486,7 +56119,7 @@
         <v>947</v>
       </c>
       <c r="AB420" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC420" s="68" t="s">
         <v>948</v>
@@ -56524,11 +56157,11 @@
       <c r="AN420" s="75" t="s">
         <v>972</v>
       </c>
-      <c r="AO420" t="s">
-        <v>2420</v>
+      <c r="AO420" s="184" t="s">
+        <v>2312</v>
       </c>
       <c r="AP420" s="67" t="s">
-        <v>2421</v>
+        <v>2313</v>
       </c>
       <c r="AQ420" t="s">
         <v>923</v>
@@ -56538,24 +56171,24 @@
       <c r="A421" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B421" s="186" t="s">
-        <v>964</v>
+      <c r="B421" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C421" s="48" t="s">
         <v>880</v>
       </c>
       <c r="D421" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E421" s="153" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiCOV</v>
+        <v>CAS_SarathiProd</v>
       </c>
       <c r="F421" s="48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G421" s="48" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="H421" s="52" t="s">
         <v>865</v>
@@ -56564,7 +56197,7 @@
         <v>865</v>
       </c>
       <c r="J421" s="190" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="K421" s="190" t="s">
         <v>869</v>
@@ -56585,28 +56218,28 @@
         <v>943</v>
       </c>
       <c r="Q421" s="72" t="s">
-        <v>2394</v>
+        <v>2262</v>
       </c>
       <c r="R421" s="72" t="s">
-        <v>2394</v>
+        <v>2262</v>
       </c>
       <c r="S421" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T421" s="67" t="s">
-        <v>2422</v>
+        <v>1309</v>
       </c>
       <c r="U421" s="184" t="s">
-        <v>1536</v>
+        <v>1194</v>
       </c>
       <c r="V421" s="68" t="s">
         <v>944</v>
       </c>
       <c r="W421" s="184" t="s">
-        <v>1858</v>
+        <v>1428</v>
       </c>
       <c r="X421" s="67" t="s">
-        <v>1527</v>
+        <v>1621</v>
       </c>
       <c r="Y421" s="68" t="s">
         <v>945</v>
@@ -56618,7 +56251,7 @@
         <v>947</v>
       </c>
       <c r="AB421" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC421" s="68" t="s">
         <v>948</v>
@@ -56656,11 +56289,11 @@
       <c r="AN421" s="75" t="s">
         <v>972</v>
       </c>
-      <c r="AO421" t="s">
-        <v>2423</v>
+      <c r="AO421" s="184" t="s">
+        <v>2314</v>
       </c>
       <c r="AP421" s="67" t="s">
-        <v>2424</v>
+        <v>2315</v>
       </c>
       <c r="AQ421" t="s">
         <v>923</v>
@@ -56670,24 +56303,24 @@
       <c r="A422" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B422" s="186" t="s">
-        <v>965</v>
+      <c r="B422" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C422" s="48" t="s">
         <v>880</v>
       </c>
       <c r="D422" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E422" s="153" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiCOV</v>
+        <v>CAS_SarathiProd</v>
       </c>
       <c r="F422" s="48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G422" s="48" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="H422" s="52" t="s">
         <v>865</v>
@@ -56696,7 +56329,7 @@
         <v>865</v>
       </c>
       <c r="J422" s="190" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="K422" s="190" t="s">
         <v>869</v>
@@ -56717,29 +56350,21 @@
         <v>943</v>
       </c>
       <c r="Q422" s="72" t="s">
-        <v>2395</v>
+        <v>2263</v>
       </c>
       <c r="R422" s="72" t="s">
-        <v>2395</v>
+        <v>2263</v>
       </c>
       <c r="S422" s="71" t="s">
         <v>952</v>
       </c>
-      <c r="T422" s="67" t="s">
-        <v>2425</v>
-      </c>
-      <c r="U422" s="184" t="s">
-        <v>1178</v>
-      </c>
+      <c r="T422" s="67"/>
+      <c r="U422" s="184"/>
       <c r="V422" s="68" t="s">
         <v>944</v>
       </c>
-      <c r="W422" s="184" t="s">
-        <v>2426</v>
-      </c>
-      <c r="X422" s="67" t="s">
-        <v>1121</v>
-      </c>
+      <c r="W422" s="184"/>
+      <c r="X422" s="67"/>
       <c r="Y422" s="68" t="s">
         <v>945</v>
       </c>
@@ -56750,7 +56375,7 @@
         <v>947</v>
       </c>
       <c r="AB422" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC422" s="68" t="s">
         <v>948</v>
@@ -56785,14 +56410,12 @@
       <c r="AM422" s="75" t="s">
         <v>865</v>
       </c>
-      <c r="AN422" s="75" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO422" t="s">
-        <v>2427</v>
-      </c>
-      <c r="AP422" s="67" t="s">
-        <v>2428</v>
+      <c r="AN422" s="75"/>
+      <c r="AO422" s="184" t="s">
+        <v>2306</v>
+      </c>
+      <c r="AP422" s="74" t="s">
+        <v>2307</v>
       </c>
       <c r="AQ422" t="s">
         <v>923</v>
@@ -56802,18 +56425,18 @@
       <c r="A423" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B423" s="186" t="s">
-        <v>2276</v>
+      <c r="B423" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C423" s="48" t="s">
         <v>880</v>
       </c>
       <c r="D423" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E423" s="153" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiCOV</v>
+        <v>CAS_SarathiProd</v>
       </c>
       <c r="F423" s="48" t="s">
         <v>19</v>
@@ -56849,16 +56472,16 @@
         <v>943</v>
       </c>
       <c r="Q423" s="72" t="s">
-        <v>2396</v>
+        <v>2264</v>
       </c>
       <c r="R423" s="72" t="s">
-        <v>2396</v>
+        <v>2264</v>
       </c>
       <c r="S423" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T423" s="67" t="s">
-        <v>2429</v>
+        <v>2281</v>
       </c>
       <c r="U423" s="184" t="s">
         <v>1088</v>
@@ -56882,7 +56505,7 @@
         <v>947</v>
       </c>
       <c r="AB423" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC423" s="68" t="s">
         <v>948</v>
@@ -56917,15 +56540,9 @@
       <c r="AM423" s="75" t="s">
         <v>865</v>
       </c>
-      <c r="AN423" s="75" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO423" t="s">
-        <v>2430</v>
-      </c>
-      <c r="AP423" s="67" t="s">
-        <v>2431</v>
-      </c>
+      <c r="AN423" s="75"/>
+      <c r="AO423" s="184"/>
+      <c r="AP423" s="67"/>
       <c r="AQ423" t="s">
         <v>923</v>
       </c>
@@ -56934,18 +56551,18 @@
       <c r="A424" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B424" s="186" t="s">
-        <v>2277</v>
+      <c r="B424" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C424" s="48" t="s">
         <v>880</v>
       </c>
       <c r="D424" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E424" s="153" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,12,FALSE)</f>
-        <v>CAS_SarathiCOV</v>
+        <v>CAS_SarathiProd</v>
       </c>
       <c r="F424" s="48" t="s">
         <v>19</v>
@@ -56981,10 +56598,10 @@
         <v>943</v>
       </c>
       <c r="Q424" s="72" t="s">
-        <v>2397</v>
+        <v>2265</v>
       </c>
       <c r="R424" s="72" t="s">
-        <v>2397</v>
+        <v>2265</v>
       </c>
       <c r="S424" s="71" t="s">
         <v>952</v>
@@ -56999,7 +56616,7 @@
         <v>944</v>
       </c>
       <c r="W424" s="184" t="s">
-        <v>2432</v>
+        <v>2282</v>
       </c>
       <c r="X424" s="67" t="s">
         <v>1076</v>
@@ -57014,7 +56631,7 @@
         <v>947</v>
       </c>
       <c r="AB424" s="74" t="s">
-        <v>2407</v>
+        <v>1653</v>
       </c>
       <c r="AC424" s="68" t="s">
         <v>948</v>
@@ -57049,15 +56666,9 @@
       <c r="AM424" s="75" t="s">
         <v>865</v>
       </c>
-      <c r="AN424" s="75" t="s">
-        <v>972</v>
-      </c>
-      <c r="AO424" t="s">
-        <v>2433</v>
-      </c>
-      <c r="AP424" s="67" t="s">
-        <v>2434</v>
-      </c>
+      <c r="AN424" s="75"/>
+      <c r="AO424" s="184"/>
+      <c r="AP424" s="67"/>
       <c r="AQ424" t="s">
         <v>923</v>
       </c>
@@ -57066,8 +56677,8 @@
       <c r="A425" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B425" s="186" t="s">
-        <v>2278</v>
+      <c r="B425" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C425" s="48" t="s">
         <v>880</v>
@@ -57113,16 +56724,16 @@
         <v>943</v>
       </c>
       <c r="Q425" s="72" t="s">
-        <v>2398</v>
+        <v>2266</v>
       </c>
       <c r="R425" s="72" t="s">
-        <v>2398</v>
+        <v>2266</v>
       </c>
       <c r="S425" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T425" s="67" t="s">
-        <v>2123</v>
+        <v>2073</v>
       </c>
       <c r="U425" s="184" t="s">
         <v>1248</v>
@@ -57131,7 +56742,7 @@
         <v>944</v>
       </c>
       <c r="W425" s="184" t="s">
-        <v>2435</v>
+        <v>2283</v>
       </c>
       <c r="X425" s="67" t="s">
         <v>1194</v>
@@ -57146,7 +56757,7 @@
         <v>947</v>
       </c>
       <c r="AB425" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC425" s="68" t="s">
         <v>948</v>
@@ -57181,14 +56792,14 @@
       <c r="AM425" s="75" t="s">
         <v>865</v>
       </c>
-      <c r="AN425" s="75" t="s">
+      <c r="AN425" s="192" t="s">
         <v>972</v>
       </c>
       <c r="AO425" t="s">
-        <v>2436</v>
-      </c>
-      <c r="AP425" s="67" t="s">
-        <v>2437</v>
+        <v>2284</v>
+      </c>
+      <c r="AP425" s="193" t="s">
+        <v>2285</v>
       </c>
       <c r="AQ425" t="s">
         <v>923</v>
@@ -57198,8 +56809,8 @@
       <c r="A426" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B426" s="186" t="s">
-        <v>2279</v>
+      <c r="B426" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C426" s="48" t="s">
         <v>880</v>
@@ -57245,10 +56856,10 @@
         <v>943</v>
       </c>
       <c r="Q426" s="72" t="s">
-        <v>2399</v>
+        <v>2267</v>
       </c>
       <c r="R426" s="72" t="s">
-        <v>2399</v>
+        <v>2267</v>
       </c>
       <c r="S426" s="71" t="s">
         <v>952</v>
@@ -57263,7 +56874,7 @@
         <v>944</v>
       </c>
       <c r="W426" s="184" t="s">
-        <v>2216</v>
+        <v>2110</v>
       </c>
       <c r="X426" s="67" t="s">
         <v>1621</v>
@@ -57278,7 +56889,7 @@
         <v>947</v>
       </c>
       <c r="AB426" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC426" s="68" t="s">
         <v>948</v>
@@ -57317,10 +56928,10 @@
         <v>972</v>
       </c>
       <c r="AO426" t="s">
-        <v>2438</v>
+        <v>2286</v>
       </c>
       <c r="AP426" s="67" t="s">
-        <v>2439</v>
+        <v>2287</v>
       </c>
       <c r="AQ426" t="s">
         <v>923</v>
@@ -57330,8 +56941,8 @@
       <c r="A427" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B427" s="186" t="s">
-        <v>2280</v>
+      <c r="B427" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C427" s="48" t="s">
         <v>880</v>
@@ -57377,10 +56988,10 @@
         <v>943</v>
       </c>
       <c r="Q427" s="72" t="s">
-        <v>2400</v>
+        <v>2268</v>
       </c>
       <c r="R427" s="72" t="s">
-        <v>2400</v>
+        <v>2268</v>
       </c>
       <c r="S427" s="71" t="s">
         <v>952</v>
@@ -57395,7 +57006,7 @@
         <v>944</v>
       </c>
       <c r="W427" s="184" t="s">
-        <v>2440</v>
+        <v>2288</v>
       </c>
       <c r="X427" s="67" t="s">
         <v>1212</v>
@@ -57410,7 +57021,7 @@
         <v>947</v>
       </c>
       <c r="AB427" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC427" s="68" t="s">
         <v>948</v>
@@ -57449,10 +57060,10 @@
         <v>972</v>
       </c>
       <c r="AO427" t="s">
-        <v>2441</v>
+        <v>2289</v>
       </c>
       <c r="AP427" s="67" t="s">
-        <v>2442</v>
+        <v>2290</v>
       </c>
       <c r="AQ427" t="s">
         <v>923</v>
@@ -57462,8 +57073,8 @@
       <c r="A428" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B428" s="186" t="s">
-        <v>2321</v>
+      <c r="B428" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C428" s="48" t="s">
         <v>880</v>
@@ -57509,10 +57120,10 @@
         <v>943</v>
       </c>
       <c r="Q428" s="72" t="s">
-        <v>2401</v>
+        <v>2269</v>
       </c>
       <c r="R428" s="72" t="s">
-        <v>2401</v>
+        <v>2269</v>
       </c>
       <c r="S428" s="71" t="s">
         <v>952</v>
@@ -57542,7 +57153,7 @@
         <v>947</v>
       </c>
       <c r="AB428" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC428" s="68" t="s">
         <v>948</v>
@@ -57581,10 +57192,10 @@
         <v>972</v>
       </c>
       <c r="AO428" t="s">
-        <v>2443</v>
+        <v>2291</v>
       </c>
       <c r="AP428" s="67" t="s">
-        <v>2444</v>
+        <v>2292</v>
       </c>
       <c r="AQ428" t="s">
         <v>923</v>
@@ -57594,8 +57205,8 @@
       <c r="A429" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B429" s="186" t="s">
-        <v>2322</v>
+      <c r="B429" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C429" s="48" t="s">
         <v>880</v>
@@ -57641,16 +57252,16 @@
         <v>943</v>
       </c>
       <c r="Q429" s="72" t="s">
-        <v>2402</v>
+        <v>2270</v>
       </c>
       <c r="R429" s="72" t="s">
-        <v>2402</v>
+        <v>2270</v>
       </c>
       <c r="S429" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T429" s="67" t="s">
-        <v>2445</v>
+        <v>2293</v>
       </c>
       <c r="U429" s="184" t="s">
         <v>1917</v>
@@ -57674,7 +57285,7 @@
         <v>947</v>
       </c>
       <c r="AB429" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC429" s="68" t="s">
         <v>948</v>
@@ -57713,10 +57324,10 @@
         <v>972</v>
       </c>
       <c r="AO429" t="s">
-        <v>2446</v>
+        <v>2294</v>
       </c>
       <c r="AP429" s="67" t="s">
-        <v>2447</v>
+        <v>2295</v>
       </c>
       <c r="AQ429" t="s">
         <v>923</v>
@@ -57726,8 +57337,8 @@
       <c r="A430" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B430" s="186" t="s">
-        <v>2323</v>
+      <c r="B430" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C430" s="48" t="s">
         <v>880</v>
@@ -57773,10 +57384,10 @@
         <v>943</v>
       </c>
       <c r="Q430" s="72" t="s">
-        <v>2403</v>
+        <v>2271</v>
       </c>
       <c r="R430" s="72" t="s">
-        <v>2403</v>
+        <v>2271</v>
       </c>
       <c r="S430" s="71" t="s">
         <v>952</v>
@@ -57806,7 +57417,7 @@
         <v>947</v>
       </c>
       <c r="AB430" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC430" s="68" t="s">
         <v>948</v>
@@ -57845,10 +57456,10 @@
         <v>972</v>
       </c>
       <c r="AO430" t="s">
-        <v>2448</v>
+        <v>2296</v>
       </c>
       <c r="AP430" s="67" t="s">
-        <v>2449</v>
+        <v>2297</v>
       </c>
       <c r="AQ430" t="s">
         <v>923</v>
@@ -57858,8 +57469,8 @@
       <c r="A431" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B431" s="186" t="s">
-        <v>2324</v>
+      <c r="B431" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C431" s="48" t="s">
         <v>880</v>
@@ -57905,10 +57516,10 @@
         <v>943</v>
       </c>
       <c r="Q431" s="72" t="s">
-        <v>2404</v>
+        <v>2272</v>
       </c>
       <c r="R431" s="72" t="s">
-        <v>2404</v>
+        <v>2272</v>
       </c>
       <c r="S431" s="71" t="s">
         <v>952</v>
@@ -57938,7 +57549,7 @@
         <v>947</v>
       </c>
       <c r="AB431" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC431" s="68" t="s">
         <v>948</v>
@@ -57977,10 +57588,10 @@
         <v>972</v>
       </c>
       <c r="AO431" t="s">
-        <v>2450</v>
+        <v>2298</v>
       </c>
       <c r="AP431" s="67" t="s">
-        <v>2451</v>
+        <v>2299</v>
       </c>
       <c r="AQ431" t="s">
         <v>923</v>
@@ -57990,8 +57601,8 @@
       <c r="A432" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B432" s="186" t="s">
-        <v>2325</v>
+      <c r="B432" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C432" s="48" t="s">
         <v>880</v>
@@ -58037,16 +57648,16 @@
         <v>943</v>
       </c>
       <c r="Q432" s="72" t="s">
-        <v>2405</v>
+        <v>2273</v>
       </c>
       <c r="R432" s="72" t="s">
-        <v>2405</v>
+        <v>2273</v>
       </c>
       <c r="S432" s="71" t="s">
         <v>952</v>
       </c>
       <c r="T432" s="67" t="s">
-        <v>2452</v>
+        <v>2300</v>
       </c>
       <c r="U432" s="184" t="s">
         <v>1099</v>
@@ -58070,7 +57681,7 @@
         <v>947</v>
       </c>
       <c r="AB432" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC432" s="68" t="s">
         <v>948</v>
@@ -58109,10 +57720,10 @@
         <v>972</v>
       </c>
       <c r="AO432" t="s">
-        <v>2453</v>
+        <v>2301</v>
       </c>
       <c r="AP432" s="67" t="s">
-        <v>2454</v>
+        <v>2302</v>
       </c>
       <c r="AQ432" t="s">
         <v>923</v>
@@ -58122,8 +57733,8 @@
       <c r="A433" s="153" t="s">
         <v>928</v>
       </c>
-      <c r="B433" s="186" t="s">
-        <v>2326</v>
+      <c r="B433" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C433" s="48" t="s">
         <v>880</v>
@@ -58169,10 +57780,10 @@
         <v>943</v>
       </c>
       <c r="Q433" s="72" t="s">
-        <v>2406</v>
+        <v>2274</v>
       </c>
       <c r="R433" s="72" t="s">
-        <v>2406</v>
+        <v>2274</v>
       </c>
       <c r="S433" s="71" t="s">
         <v>952</v>
@@ -58187,7 +57798,7 @@
         <v>944</v>
       </c>
       <c r="W433" s="184" t="s">
-        <v>2455</v>
+        <v>2303</v>
       </c>
       <c r="X433" s="67" t="s">
         <v>1201</v>
@@ -58202,7 +57813,7 @@
         <v>947</v>
       </c>
       <c r="AB433" s="74" t="s">
-        <v>2407</v>
+        <v>2275</v>
       </c>
       <c r="AC433" s="68" t="s">
         <v>948</v>
@@ -58241,10 +57852,10 @@
         <v>972</v>
       </c>
       <c r="AO433" t="s">
-        <v>2456</v>
+        <v>2304</v>
       </c>
       <c r="AP433" s="67" t="s">
-        <v>2457</v>
+        <v>2305</v>
       </c>
       <c r="AQ433" t="s">
         <v>923</v>
@@ -58284,10 +57895,10 @@
     </row>
     <row r="435" spans="1:43">
       <c r="A435" s="153" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B435" s="51" t="s">
-        <v>1</v>
+        <v>2125</v>
+      </c>
+      <c r="B435" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C435" s="48" t="s">
         <v>880</v>
@@ -58312,15 +57923,15 @@
         <v>869</v>
       </c>
       <c r="J435" s="152" t="s">
-        <v>2320</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="436" spans="1:43">
       <c r="A436" s="153" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B436" s="186" t="s">
-        <v>962</v>
+        <v>2125</v>
+      </c>
+      <c r="B436" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C436" s="48" t="s">
         <v>880</v>
@@ -58345,15 +57956,15 @@
         <v>869</v>
       </c>
       <c r="J436" s="152" t="s">
-        <v>2351</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="437" spans="1:43">
       <c r="A437" s="153" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B437" s="186" t="s">
-        <v>963</v>
+        <v>2125</v>
+      </c>
+      <c r="B437" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C437" s="48" t="s">
         <v>880</v>
@@ -58378,15 +57989,15 @@
         <v>869</v>
       </c>
       <c r="J437" s="152" t="s">
-        <v>2352</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="438" spans="1:43">
       <c r="A438" s="153" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B438" s="186" t="s">
-        <v>964</v>
+        <v>2125</v>
+      </c>
+      <c r="B438" s="190" t="s">
+        <v>872</v>
       </c>
       <c r="C438" s="48" t="s">
         <v>880</v>
@@ -58411,12 +58022,12 @@
         <v>869</v>
       </c>
       <c r="J438" s="152" t="s">
-        <v>2353</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="439" spans="1:43">
       <c r="A439" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B439" s="167" t="s">
         <v>872</v>
@@ -58444,12 +58055,12 @@
         <v>869</v>
       </c>
       <c r="J439" s="75" t="s">
-        <v>2125</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="440" spans="1:43">
       <c r="A440" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B440" s="167" t="s">
         <v>872</v>
@@ -58477,12 +58088,12 @@
         <v>869</v>
       </c>
       <c r="J440" s="75" t="s">
-        <v>2128</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="441" spans="1:43">
       <c r="A441" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B441" s="167" t="s">
         <v>872</v>
@@ -58510,12 +58121,12 @@
         <v>869</v>
       </c>
       <c r="J441" s="75" t="s">
-        <v>2132</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="442" spans="1:43">
       <c r="A442" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B442" s="167" t="s">
         <v>872</v>
@@ -58543,12 +58154,12 @@
         <v>869</v>
       </c>
       <c r="J442" s="75" t="s">
-        <v>2134</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="443" spans="1:43">
       <c r="A443" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B443" s="167" t="s">
         <v>872</v>
@@ -58576,12 +58187,12 @@
         <v>869</v>
       </c>
       <c r="J443" s="75" t="s">
-        <v>2137</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="444" spans="1:43">
       <c r="A444" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B444" s="167" t="s">
         <v>872</v>
@@ -58609,12 +58220,12 @@
         <v>869</v>
       </c>
       <c r="J444" s="75" t="s">
-        <v>2139</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="445" spans="1:43">
       <c r="A445" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B445" s="167" t="s">
         <v>872</v>
@@ -58642,12 +58253,12 @@
         <v>869</v>
       </c>
       <c r="J445" s="75" t="s">
-        <v>2141</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="446" spans="1:43">
       <c r="A446" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B446" s="167" t="s">
         <v>872</v>
@@ -58675,12 +58286,12 @@
         <v>869</v>
       </c>
       <c r="J446" s="75" t="s">
-        <v>2143</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="447" spans="1:43">
       <c r="A447" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B447" s="167" t="s">
         <v>872</v>
@@ -58708,12 +58319,12 @@
         <v>869</v>
       </c>
       <c r="J447" s="75" t="s">
-        <v>2145</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="448" spans="1:43">
       <c r="A448" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B448" s="167" t="s">
         <v>872</v>
@@ -58741,12 +58352,12 @@
         <v>869</v>
       </c>
       <c r="J448" s="75" t="s">
-        <v>2148</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="449" spans="1:10">
       <c r="A449" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B449" s="167" t="s">
         <v>872</v>
@@ -58774,12 +58385,12 @@
         <v>869</v>
       </c>
       <c r="J449" s="75" t="s">
-        <v>2150</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="450" spans="1:10">
       <c r="A450" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B450" s="167" t="s">
         <v>872</v>
@@ -58807,12 +58418,12 @@
         <v>869</v>
       </c>
       <c r="J450" s="75" t="s">
-        <v>2153</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="451" spans="1:10">
       <c r="A451" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B451" s="167" t="s">
         <v>872</v>
@@ -58840,12 +58451,12 @@
         <v>869</v>
       </c>
       <c r="J451" s="75" t="s">
-        <v>2156</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="452" spans="1:10">
       <c r="A452" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B452" s="167" t="s">
         <v>872</v>
@@ -58873,12 +58484,12 @@
         <v>869</v>
       </c>
       <c r="J452" s="75" t="s">
-        <v>2159</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="453" spans="1:10">
       <c r="A453" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B453" s="167" t="s">
         <v>872</v>
@@ -58906,12 +58517,12 @@
         <v>869</v>
       </c>
       <c r="J453" s="75" t="s">
-        <v>2162</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="454" spans="1:10">
       <c r="A454" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B454" s="167" t="s">
         <v>872</v>
@@ -58939,12 +58550,12 @@
         <v>869</v>
       </c>
       <c r="J454" s="75" t="s">
-        <v>2165</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="455" spans="1:10">
       <c r="A455" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B455" s="167" t="s">
         <v>872</v>
@@ -58972,12 +58583,12 @@
         <v>869</v>
       </c>
       <c r="J455" s="75" t="s">
-        <v>2169</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="456" spans="1:10">
       <c r="A456" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B456" s="167" t="s">
         <v>872</v>
@@ -59005,12 +58616,12 @@
         <v>869</v>
       </c>
       <c r="J456" s="75" t="s">
-        <v>2172</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="457" spans="1:10">
       <c r="A457" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B457" s="167" t="s">
         <v>872</v>
@@ -59038,12 +58649,12 @@
         <v>869</v>
       </c>
       <c r="J457" s="75" t="s">
-        <v>2175</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="458" spans="1:10">
       <c r="A458" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B458" s="167" t="s">
         <v>872</v>
@@ -59071,12 +58682,12 @@
         <v>869</v>
       </c>
       <c r="J458" s="75" t="s">
-        <v>2179</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="459" spans="1:10">
       <c r="A459" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B459" s="167" t="s">
         <v>872</v>
@@ -59104,12 +58715,12 @@
         <v>869</v>
       </c>
       <c r="J459" s="75" t="s">
-        <v>2182</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="460" spans="1:10">
       <c r="A460" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B460" s="167" t="s">
         <v>872</v>
@@ -59137,12 +58748,12 @@
         <v>869</v>
       </c>
       <c r="J460" s="75" t="s">
-        <v>2185</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="461" spans="1:10">
       <c r="A461" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B461" s="167" t="s">
         <v>872</v>
@@ -59170,12 +58781,12 @@
         <v>869</v>
       </c>
       <c r="J461" s="75" t="s">
-        <v>2188</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="462" spans="1:10">
       <c r="A462" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B462" s="167" t="s">
         <v>872</v>
@@ -59203,12 +58814,12 @@
         <v>869</v>
       </c>
       <c r="J462" s="75" t="s">
-        <v>2191</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="463" spans="1:10">
       <c r="A463" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B463" s="167" t="s">
         <v>872</v>
@@ -59236,12 +58847,12 @@
         <v>869</v>
       </c>
       <c r="J463" s="75" t="s">
-        <v>2195</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B464" s="167" t="s">
         <v>872</v>
@@ -59269,12 +58880,12 @@
         <v>869</v>
       </c>
       <c r="J464" s="75" t="s">
-        <v>2197</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="465" spans="1:10">
       <c r="A465" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B465" s="167" t="s">
         <v>872</v>
@@ -59302,12 +58913,12 @@
         <v>869</v>
       </c>
       <c r="J465" s="75" t="s">
-        <v>2255</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="466" spans="1:10">
       <c r="A466" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B466" s="167" t="s">
         <v>872</v>
@@ -59335,12 +58946,12 @@
         <v>869</v>
       </c>
       <c r="J466" s="75" t="s">
-        <v>2199</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="467" spans="1:10">
       <c r="A467" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B467" s="167" t="s">
         <v>872</v>
@@ -59368,12 +58979,12 @@
         <v>869</v>
       </c>
       <c r="J467" s="75" t="s">
-        <v>2201</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="468" spans="1:10">
       <c r="A468" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B468" s="167" t="s">
         <v>872</v>
@@ -59401,12 +59012,12 @@
         <v>869</v>
       </c>
       <c r="J468" s="75" t="s">
-        <v>2204</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="469" spans="1:10">
       <c r="A469" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B469" s="167" t="s">
         <v>872</v>
@@ -59434,12 +59045,12 @@
         <v>869</v>
       </c>
       <c r="J469" s="75" t="s">
-        <v>2207</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="470" spans="1:10">
       <c r="A470" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B470" s="167" t="s">
         <v>872</v>
@@ -59467,12 +59078,12 @@
         <v>869</v>
       </c>
       <c r="J470" s="75" t="s">
-        <v>2209</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="471" spans="1:10">
       <c r="A471" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B471" s="167" t="s">
         <v>872</v>
@@ -59500,12 +59111,12 @@
         <v>869</v>
       </c>
       <c r="J471" s="75" t="s">
-        <v>2211</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="472" spans="1:10">
       <c r="A472" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B472" s="167" t="s">
         <v>872</v>
@@ -59533,12 +59144,12 @@
         <v>869</v>
       </c>
       <c r="J472" s="75" t="s">
-        <v>2215</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="473" spans="1:10">
       <c r="A473" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B473" s="167" t="s">
         <v>872</v>
@@ -59566,12 +59177,12 @@
         <v>869</v>
       </c>
       <c r="J473" s="75" t="s">
-        <v>2218</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="474" spans="1:10">
       <c r="A474" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B474" s="167" t="s">
         <v>872</v>
@@ -59599,12 +59210,12 @@
         <v>869</v>
       </c>
       <c r="J474" s="75" t="s">
-        <v>2222</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="475" spans="1:10">
       <c r="A475" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B475" s="167" t="s">
         <v>872</v>
@@ -59632,12 +59243,12 @@
         <v>869</v>
       </c>
       <c r="J475" s="75" t="s">
-        <v>2226</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="476" spans="1:10">
       <c r="A476" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B476" s="167" t="s">
         <v>872</v>
@@ -59665,12 +59276,12 @@
         <v>869</v>
       </c>
       <c r="J476" s="75" t="s">
-        <v>2228</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="477" spans="1:10">
       <c r="A477" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B477" s="167" t="s">
         <v>872</v>
@@ -59698,12 +59309,12 @@
         <v>869</v>
       </c>
       <c r="J477" s="75" t="s">
-        <v>2230</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="478" spans="1:10">
       <c r="A478" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B478" s="167" t="s">
         <v>872</v>
@@ -59731,12 +59342,12 @@
         <v>869</v>
       </c>
       <c r="J478" s="75" t="s">
-        <v>2233</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B479" s="167" t="s">
         <v>872</v>
@@ -59764,12 +59375,12 @@
         <v>869</v>
       </c>
       <c r="J479" s="75" t="s">
-        <v>2236</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="480" spans="1:10">
       <c r="A480" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B480" s="167" t="s">
         <v>872</v>
@@ -59797,12 +59408,12 @@
         <v>869</v>
       </c>
       <c r="J480" s="75" t="s">
-        <v>2238</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="481" spans="1:10">
       <c r="A481" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B481" s="167" t="s">
         <v>872</v>
@@ -59830,12 +59441,12 @@
         <v>869</v>
       </c>
       <c r="J481" s="75" t="s">
-        <v>2241</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="482" spans="1:10">
       <c r="A482" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B482" s="167" t="s">
         <v>872</v>
@@ -59863,12 +59474,12 @@
         <v>869</v>
       </c>
       <c r="J482" s="75" t="s">
-        <v>2244</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="483" spans="1:10">
       <c r="A483" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B483" s="167" t="s">
         <v>872</v>
@@ -59896,12 +59507,12 @@
         <v>869</v>
       </c>
       <c r="J483" s="75" t="s">
-        <v>2248</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="484" spans="1:10">
       <c r="A484" s="153" t="s">
-        <v>2257</v>
+        <v>2125</v>
       </c>
       <c r="B484" s="167" t="s">
         <v>872</v>
@@ -59929,7 +59540,7 @@
         <v>869</v>
       </c>
       <c r="J484" s="75" t="s">
-        <v>2251</v>
+        <v>2123</v>
       </c>
     </row>
   </sheetData>
